--- a/スパダリセブン(UnityData)/Assets/Resources/プランナー監獄エリア/Story/ストーリーCSVの記入ルール.xlsx
+++ b/スパダリセブン(UnityData)/Assets/Resources/プランナー監獄エリア/Story/ストーリーCSVの記入ルール.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimim\OneDrive\デスクトップ\SuperDarling7\スパダリセブン(UnityData)\Assets\Resources\プランナー監獄エリア\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A13FF9-AB92-4EFD-92B2-4CC0EECECA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C748079C-7AFA-4648-83AF-2D7A73A14557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F47F9A72-F10B-4779-A4EA-383775F0BB0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="24">
   <si>
     <t>︙</t>
     <phoneticPr fontId="1"/>
@@ -344,6 +344,23 @@
     </rPh>
     <rPh sb="182" eb="184">
       <t>レンラク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様するBGM名を入力</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -391,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,16 +416,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFBB206-688C-4217-9AF1-F06A4641E0D1}">
-  <dimension ref="A1:GQ27"/>
+  <dimension ref="A1:HL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BS24" sqref="BS24"/>
+    <sheetView tabSelected="1" topLeftCell="DH1" workbookViewId="0">
+      <selection activeCell="GR7" sqref="GR7:HL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -756,7 +770,7 @@
     <col min="15" max="15" width="1.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -974,8 +988,31 @@
       <c r="GO1" s="1"/>
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
+      <c r="GR1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="GS1" s="1"/>
+      <c r="GT1" s="1"/>
+      <c r="GU1" s="1"/>
+      <c r="GV1" s="1"/>
+      <c r="GW1" s="1"/>
+      <c r="GX1" s="1"/>
+      <c r="GY1" s="1"/>
+      <c r="GZ1" s="1"/>
+      <c r="HA1" s="1"/>
+      <c r="HB1" s="1"/>
+      <c r="HC1" s="1"/>
+      <c r="HD1" s="1"/>
+      <c r="HE1" s="1"/>
+      <c r="HF1" s="1"/>
+      <c r="HG1" s="1"/>
+      <c r="HH1" s="1"/>
+      <c r="HI1" s="1"/>
+      <c r="HJ1" s="1"/>
+      <c r="HK1" s="1"/>
+      <c r="HL1" s="1"/>
     </row>
-    <row r="2" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1175,8 +1212,29 @@
       <c r="GO2" s="1"/>
       <c r="GP2" s="1"/>
       <c r="GQ2" s="1"/>
+      <c r="GR2" s="1"/>
+      <c r="GS2" s="1"/>
+      <c r="GT2" s="1"/>
+      <c r="GU2" s="1"/>
+      <c r="GV2" s="1"/>
+      <c r="GW2" s="1"/>
+      <c r="GX2" s="1"/>
+      <c r="GY2" s="1"/>
+      <c r="GZ2" s="1"/>
+      <c r="HA2" s="1"/>
+      <c r="HB2" s="1"/>
+      <c r="HC2" s="1"/>
+      <c r="HD2" s="1"/>
+      <c r="HE2" s="1"/>
+      <c r="HF2" s="1"/>
+      <c r="HG2" s="1"/>
+      <c r="HH2" s="1"/>
+      <c r="HI2" s="1"/>
+      <c r="HJ2" s="1"/>
+      <c r="HK2" s="1"/>
+      <c r="HL2" s="1"/>
     </row>
-    <row r="3" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1376,8 +1434,29 @@
       <c r="GO3" s="1"/>
       <c r="GP3" s="1"/>
       <c r="GQ3" s="1"/>
+      <c r="GR3" s="1"/>
+      <c r="GS3" s="1"/>
+      <c r="GT3" s="1"/>
+      <c r="GU3" s="1"/>
+      <c r="GV3" s="1"/>
+      <c r="GW3" s="1"/>
+      <c r="GX3" s="1"/>
+      <c r="GY3" s="1"/>
+      <c r="GZ3" s="1"/>
+      <c r="HA3" s="1"/>
+      <c r="HB3" s="1"/>
+      <c r="HC3" s="1"/>
+      <c r="HD3" s="1"/>
+      <c r="HE3" s="1"/>
+      <c r="HF3" s="1"/>
+      <c r="HG3" s="1"/>
+      <c r="HH3" s="1"/>
+      <c r="HI3" s="1"/>
+      <c r="HJ3" s="1"/>
+      <c r="HK3" s="1"/>
+      <c r="HL3" s="1"/>
     </row>
-    <row r="4" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1390,7 +1469,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="1"/>
@@ -1413,30 +1492,30 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="3" t="s">
+      <c r="AF4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BA4" s="3" t="s">
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="BB4" s="1"/>
@@ -1459,30 +1538,30 @@
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
-      <c r="BV4" s="3" t="s">
+      <c r="BV4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BW4" s="3"/>
-      <c r="BX4" s="3"/>
-      <c r="BY4" s="3"/>
-      <c r="BZ4" s="3"/>
-      <c r="CA4" s="3"/>
-      <c r="CB4" s="3"/>
-      <c r="CC4" s="3"/>
-      <c r="CD4" s="3"/>
-      <c r="CE4" s="3"/>
-      <c r="CF4" s="3"/>
-      <c r="CG4" s="3"/>
-      <c r="CH4" s="3"/>
-      <c r="CI4" s="3"/>
-      <c r="CJ4" s="3"/>
-      <c r="CK4" s="3"/>
-      <c r="CL4" s="3"/>
-      <c r="CM4" s="3"/>
-      <c r="CN4" s="3"/>
-      <c r="CO4" s="3"/>
-      <c r="CP4" s="3"/>
-      <c r="CQ4" s="3" t="s">
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="CR4" s="1"/>
@@ -1505,100 +1584,123 @@
       <c r="DI4" s="1"/>
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
-      <c r="DL4" s="3" t="s">
+      <c r="DL4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="DM4" s="3"/>
-      <c r="DN4" s="3"/>
-      <c r="DO4" s="3"/>
-      <c r="DP4" s="3"/>
-      <c r="DQ4" s="3"/>
-      <c r="DR4" s="3"/>
-      <c r="DS4" s="3"/>
-      <c r="DT4" s="3"/>
-      <c r="DU4" s="3"/>
-      <c r="DV4" s="3"/>
-      <c r="DW4" s="3"/>
-      <c r="DX4" s="3"/>
-      <c r="DY4" s="3"/>
-      <c r="DZ4" s="3"/>
-      <c r="EA4" s="3"/>
-      <c r="EB4" s="3"/>
-      <c r="EC4" s="3"/>
-      <c r="ED4" s="3"/>
-      <c r="EE4" s="3"/>
-      <c r="EF4" s="3"/>
-      <c r="EG4" s="3" t="s">
+      <c r="DM4" s="4"/>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="4"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4"/>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4"/>
+      <c r="DV4" s="4"/>
+      <c r="DW4" s="4"/>
+      <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
+      <c r="DZ4" s="4"/>
+      <c r="EA4" s="4"/>
+      <c r="EB4" s="4"/>
+      <c r="EC4" s="4"/>
+      <c r="ED4" s="4"/>
+      <c r="EE4" s="4"/>
+      <c r="EF4" s="4"/>
+      <c r="EG4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EH4" s="3"/>
-      <c r="EI4" s="3"/>
-      <c r="EJ4" s="3"/>
-      <c r="EK4" s="3"/>
-      <c r="EL4" s="3"/>
-      <c r="EM4" s="3"/>
-      <c r="EN4" s="3"/>
-      <c r="EO4" s="3"/>
-      <c r="EP4" s="3"/>
-      <c r="EQ4" s="3"/>
-      <c r="ER4" s="3"/>
-      <c r="ES4" s="3"/>
-      <c r="ET4" s="3"/>
-      <c r="EU4" s="3"/>
-      <c r="EV4" s="3"/>
-      <c r="EW4" s="3"/>
-      <c r="EX4" s="3"/>
-      <c r="EY4" s="3"/>
-      <c r="EZ4" s="3"/>
-      <c r="FA4" s="3"/>
-      <c r="FB4" s="3" t="s">
+      <c r="EH4" s="4"/>
+      <c r="EI4" s="4"/>
+      <c r="EJ4" s="4"/>
+      <c r="EK4" s="4"/>
+      <c r="EL4" s="4"/>
+      <c r="EM4" s="4"/>
+      <c r="EN4" s="4"/>
+      <c r="EO4" s="4"/>
+      <c r="EP4" s="4"/>
+      <c r="EQ4" s="4"/>
+      <c r="ER4" s="4"/>
+      <c r="ES4" s="4"/>
+      <c r="ET4" s="4"/>
+      <c r="EU4" s="4"/>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4"/>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="4"/>
+      <c r="EZ4" s="4"/>
+      <c r="FA4" s="4"/>
+      <c r="FB4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="FC4" s="3"/>
-      <c r="FD4" s="3"/>
-      <c r="FE4" s="3"/>
-      <c r="FF4" s="3"/>
-      <c r="FG4" s="3"/>
-      <c r="FH4" s="3"/>
-      <c r="FI4" s="3"/>
-      <c r="FJ4" s="3"/>
-      <c r="FK4" s="3"/>
-      <c r="FL4" s="3"/>
-      <c r="FM4" s="3"/>
-      <c r="FN4" s="3"/>
-      <c r="FO4" s="3"/>
-      <c r="FP4" s="3"/>
-      <c r="FQ4" s="3"/>
-      <c r="FR4" s="3"/>
-      <c r="FS4" s="3"/>
-      <c r="FT4" s="3"/>
-      <c r="FU4" s="3"/>
-      <c r="FV4" s="3"/>
-      <c r="FW4" s="3" t="s">
+      <c r="FC4" s="4"/>
+      <c r="FD4" s="4"/>
+      <c r="FE4" s="4"/>
+      <c r="FF4" s="4"/>
+      <c r="FG4" s="4"/>
+      <c r="FH4" s="4"/>
+      <c r="FI4" s="4"/>
+      <c r="FJ4" s="4"/>
+      <c r="FK4" s="4"/>
+      <c r="FL4" s="4"/>
+      <c r="FM4" s="4"/>
+      <c r="FN4" s="4"/>
+      <c r="FO4" s="4"/>
+      <c r="FP4" s="4"/>
+      <c r="FQ4" s="4"/>
+      <c r="FR4" s="4"/>
+      <c r="FS4" s="4"/>
+      <c r="FT4" s="4"/>
+      <c r="FU4" s="4"/>
+      <c r="FV4" s="4"/>
+      <c r="FW4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="FX4" s="3"/>
-      <c r="FY4" s="3"/>
-      <c r="FZ4" s="3"/>
-      <c r="GA4" s="3"/>
-      <c r="GB4" s="3"/>
-      <c r="GC4" s="3"/>
-      <c r="GD4" s="3"/>
-      <c r="GE4" s="3"/>
-      <c r="GF4" s="3"/>
-      <c r="GG4" s="3"/>
-      <c r="GH4" s="3"/>
-      <c r="GI4" s="3"/>
-      <c r="GJ4" s="3"/>
-      <c r="GK4" s="3"/>
-      <c r="GL4" s="3"/>
-      <c r="GM4" s="3"/>
-      <c r="GN4" s="3"/>
-      <c r="GO4" s="3"/>
-      <c r="GP4" s="3"/>
-      <c r="GQ4" s="3"/>
+      <c r="FX4" s="4"/>
+      <c r="FY4" s="4"/>
+      <c r="FZ4" s="4"/>
+      <c r="GA4" s="4"/>
+      <c r="GB4" s="4"/>
+      <c r="GC4" s="4"/>
+      <c r="GD4" s="4"/>
+      <c r="GE4" s="4"/>
+      <c r="GF4" s="4"/>
+      <c r="GG4" s="4"/>
+      <c r="GH4" s="4"/>
+      <c r="GI4" s="4"/>
+      <c r="GJ4" s="4"/>
+      <c r="GK4" s="4"/>
+      <c r="GL4" s="4"/>
+      <c r="GM4" s="4"/>
+      <c r="GN4" s="4"/>
+      <c r="GO4" s="4"/>
+      <c r="GP4" s="4"/>
+      <c r="GQ4" s="4"/>
+      <c r="GR4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="GS4" s="4"/>
+      <c r="GT4" s="4"/>
+      <c r="GU4" s="4"/>
+      <c r="GV4" s="4"/>
+      <c r="GW4" s="4"/>
+      <c r="GX4" s="4"/>
+      <c r="GY4" s="4"/>
+      <c r="GZ4" s="4"/>
+      <c r="HA4" s="4"/>
+      <c r="HB4" s="4"/>
+      <c r="HC4" s="4"/>
+      <c r="HD4" s="4"/>
+      <c r="HE4" s="4"/>
+      <c r="HF4" s="4"/>
+      <c r="HG4" s="4"/>
+      <c r="HH4" s="4"/>
+      <c r="HI4" s="4"/>
+      <c r="HJ4" s="4"/>
+      <c r="HK4" s="4"/>
+      <c r="HL4" s="4"/>
     </row>
-    <row r="5" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1630,27 +1732,27 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
@@ -1672,27 +1774,27 @@
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-      <c r="BX5" s="3"/>
-      <c r="BY5" s="3"/>
-      <c r="BZ5" s="3"/>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="3"/>
-      <c r="CC5" s="3"/>
-      <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-      <c r="CK5" s="3"/>
-      <c r="CL5" s="3"/>
-      <c r="CM5" s="3"/>
-      <c r="CN5" s="3"/>
-      <c r="CO5" s="3"/>
-      <c r="CP5" s="3"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
       <c r="CQ5" s="1"/>
       <c r="CR5" s="1"/>
       <c r="CS5" s="1"/>
@@ -1714,92 +1816,113 @@
       <c r="DI5" s="1"/>
       <c r="DJ5" s="1"/>
       <c r="DK5" s="1"/>
-      <c r="DL5" s="3"/>
-      <c r="DM5" s="3"/>
-      <c r="DN5" s="3"/>
-      <c r="DO5" s="3"/>
-      <c r="DP5" s="3"/>
-      <c r="DQ5" s="3"/>
-      <c r="DR5" s="3"/>
-      <c r="DS5" s="3"/>
-      <c r="DT5" s="3"/>
-      <c r="DU5" s="3"/>
-      <c r="DV5" s="3"/>
-      <c r="DW5" s="3"/>
-      <c r="DX5" s="3"/>
-      <c r="DY5" s="3"/>
-      <c r="DZ5" s="3"/>
-      <c r="EA5" s="3"/>
-      <c r="EB5" s="3"/>
-      <c r="EC5" s="3"/>
-      <c r="ED5" s="3"/>
-      <c r="EE5" s="3"/>
-      <c r="EF5" s="3"/>
-      <c r="EG5" s="3"/>
-      <c r="EH5" s="3"/>
-      <c r="EI5" s="3"/>
-      <c r="EJ5" s="3"/>
-      <c r="EK5" s="3"/>
-      <c r="EL5" s="3"/>
-      <c r="EM5" s="3"/>
-      <c r="EN5" s="3"/>
-      <c r="EO5" s="3"/>
-      <c r="EP5" s="3"/>
-      <c r="EQ5" s="3"/>
-      <c r="ER5" s="3"/>
-      <c r="ES5" s="3"/>
-      <c r="ET5" s="3"/>
-      <c r="EU5" s="3"/>
-      <c r="EV5" s="3"/>
-      <c r="EW5" s="3"/>
-      <c r="EX5" s="3"/>
-      <c r="EY5" s="3"/>
-      <c r="EZ5" s="3"/>
-      <c r="FA5" s="3"/>
-      <c r="FB5" s="3"/>
-      <c r="FC5" s="3"/>
-      <c r="FD5" s="3"/>
-      <c r="FE5" s="3"/>
-      <c r="FF5" s="3"/>
-      <c r="FG5" s="3"/>
-      <c r="FH5" s="3"/>
-      <c r="FI5" s="3"/>
-      <c r="FJ5" s="3"/>
-      <c r="FK5" s="3"/>
-      <c r="FL5" s="3"/>
-      <c r="FM5" s="3"/>
-      <c r="FN5" s="3"/>
-      <c r="FO5" s="3"/>
-      <c r="FP5" s="3"/>
-      <c r="FQ5" s="3"/>
-      <c r="FR5" s="3"/>
-      <c r="FS5" s="3"/>
-      <c r="FT5" s="3"/>
-      <c r="FU5" s="3"/>
-      <c r="FV5" s="3"/>
-      <c r="FW5" s="3"/>
-      <c r="FX5" s="3"/>
-      <c r="FY5" s="3"/>
-      <c r="FZ5" s="3"/>
-      <c r="GA5" s="3"/>
-      <c r="GB5" s="3"/>
-      <c r="GC5" s="3"/>
-      <c r="GD5" s="3"/>
-      <c r="GE5" s="3"/>
-      <c r="GF5" s="3"/>
-      <c r="GG5" s="3"/>
-      <c r="GH5" s="3"/>
-      <c r="GI5" s="3"/>
-      <c r="GJ5" s="3"/>
-      <c r="GK5" s="3"/>
-      <c r="GL5" s="3"/>
-      <c r="GM5" s="3"/>
-      <c r="GN5" s="3"/>
-      <c r="GO5" s="3"/>
-      <c r="GP5" s="3"/>
-      <c r="GQ5" s="3"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="4"/>
+      <c r="DQ5" s="4"/>
+      <c r="DR5" s="4"/>
+      <c r="DS5" s="4"/>
+      <c r="DT5" s="4"/>
+      <c r="DU5" s="4"/>
+      <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="4"/>
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="4"/>
+      <c r="EB5" s="4"/>
+      <c r="EC5" s="4"/>
+      <c r="ED5" s="4"/>
+      <c r="EE5" s="4"/>
+      <c r="EF5" s="4"/>
+      <c r="EG5" s="4"/>
+      <c r="EH5" s="4"/>
+      <c r="EI5" s="4"/>
+      <c r="EJ5" s="4"/>
+      <c r="EK5" s="4"/>
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4"/>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4"/>
+      <c r="EW5" s="4"/>
+      <c r="EX5" s="4"/>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+      <c r="FK5" s="4"/>
+      <c r="FL5" s="4"/>
+      <c r="FM5" s="4"/>
+      <c r="FN5" s="4"/>
+      <c r="FO5" s="4"/>
+      <c r="FP5" s="4"/>
+      <c r="FQ5" s="4"/>
+      <c r="FR5" s="4"/>
+      <c r="FS5" s="4"/>
+      <c r="FT5" s="4"/>
+      <c r="FU5" s="4"/>
+      <c r="FV5" s="4"/>
+      <c r="FW5" s="4"/>
+      <c r="FX5" s="4"/>
+      <c r="FY5" s="4"/>
+      <c r="FZ5" s="4"/>
+      <c r="GA5" s="4"/>
+      <c r="GB5" s="4"/>
+      <c r="GC5" s="4"/>
+      <c r="GD5" s="4"/>
+      <c r="GE5" s="4"/>
+      <c r="GF5" s="4"/>
+      <c r="GG5" s="4"/>
+      <c r="GH5" s="4"/>
+      <c r="GI5" s="4"/>
+      <c r="GJ5" s="4"/>
+      <c r="GK5" s="4"/>
+      <c r="GL5" s="4"/>
+      <c r="GM5" s="4"/>
+      <c r="GN5" s="4"/>
+      <c r="GO5" s="4"/>
+      <c r="GP5" s="4"/>
+      <c r="GQ5" s="4"/>
+      <c r="GR5" s="4"/>
+      <c r="GS5" s="4"/>
+      <c r="GT5" s="4"/>
+      <c r="GU5" s="4"/>
+      <c r="GV5" s="4"/>
+      <c r="GW5" s="4"/>
+      <c r="GX5" s="4"/>
+      <c r="GY5" s="4"/>
+      <c r="GZ5" s="4"/>
+      <c r="HA5" s="4"/>
+      <c r="HB5" s="4"/>
+      <c r="HC5" s="4"/>
+      <c r="HD5" s="4"/>
+      <c r="HE5" s="4"/>
+      <c r="HF5" s="4"/>
+      <c r="HG5" s="4"/>
+      <c r="HH5" s="4"/>
+      <c r="HI5" s="4"/>
+      <c r="HJ5" s="4"/>
+      <c r="HK5" s="4"/>
+      <c r="HL5" s="4"/>
     </row>
-    <row r="6" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1831,27 +1954,27 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
@@ -1873,27 +1996,27 @@
       <c r="BS6" s="1"/>
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
-      <c r="BV6" s="3"/>
-      <c r="BW6" s="3"/>
-      <c r="BX6" s="3"/>
-      <c r="BY6" s="3"/>
-      <c r="BZ6" s="3"/>
-      <c r="CA6" s="3"/>
-      <c r="CB6" s="3"/>
-      <c r="CC6" s="3"/>
-      <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
-      <c r="CF6" s="3"/>
-      <c r="CG6" s="3"/>
-      <c r="CH6" s="3"/>
-      <c r="CI6" s="3"/>
-      <c r="CJ6" s="3"/>
-      <c r="CK6" s="3"/>
-      <c r="CL6" s="3"/>
-      <c r="CM6" s="3"/>
-      <c r="CN6" s="3"/>
-      <c r="CO6" s="3"/>
-      <c r="CP6" s="3"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
       <c r="CQ6" s="1"/>
       <c r="CR6" s="1"/>
       <c r="CS6" s="1"/>
@@ -1915,92 +2038,113 @@
       <c r="DI6" s="1"/>
       <c r="DJ6" s="1"/>
       <c r="DK6" s="1"/>
-      <c r="DL6" s="3"/>
-      <c r="DM6" s="3"/>
-      <c r="DN6" s="3"/>
-      <c r="DO6" s="3"/>
-      <c r="DP6" s="3"/>
-      <c r="DQ6" s="3"/>
-      <c r="DR6" s="3"/>
-      <c r="DS6" s="3"/>
-      <c r="DT6" s="3"/>
-      <c r="DU6" s="3"/>
-      <c r="DV6" s="3"/>
-      <c r="DW6" s="3"/>
-      <c r="DX6" s="3"/>
-      <c r="DY6" s="3"/>
-      <c r="DZ6" s="3"/>
-      <c r="EA6" s="3"/>
-      <c r="EB6" s="3"/>
-      <c r="EC6" s="3"/>
-      <c r="ED6" s="3"/>
-      <c r="EE6" s="3"/>
-      <c r="EF6" s="3"/>
-      <c r="EG6" s="3"/>
-      <c r="EH6" s="3"/>
-      <c r="EI6" s="3"/>
-      <c r="EJ6" s="3"/>
-      <c r="EK6" s="3"/>
-      <c r="EL6" s="3"/>
-      <c r="EM6" s="3"/>
-      <c r="EN6" s="3"/>
-      <c r="EO6" s="3"/>
-      <c r="EP6" s="3"/>
-      <c r="EQ6" s="3"/>
-      <c r="ER6" s="3"/>
-      <c r="ES6" s="3"/>
-      <c r="ET6" s="3"/>
-      <c r="EU6" s="3"/>
-      <c r="EV6" s="3"/>
-      <c r="EW6" s="3"/>
-      <c r="EX6" s="3"/>
-      <c r="EY6" s="3"/>
-      <c r="EZ6" s="3"/>
-      <c r="FA6" s="3"/>
-      <c r="FB6" s="3"/>
-      <c r="FC6" s="3"/>
-      <c r="FD6" s="3"/>
-      <c r="FE6" s="3"/>
-      <c r="FF6" s="3"/>
-      <c r="FG6" s="3"/>
-      <c r="FH6" s="3"/>
-      <c r="FI6" s="3"/>
-      <c r="FJ6" s="3"/>
-      <c r="FK6" s="3"/>
-      <c r="FL6" s="3"/>
-      <c r="FM6" s="3"/>
-      <c r="FN6" s="3"/>
-      <c r="FO6" s="3"/>
-      <c r="FP6" s="3"/>
-      <c r="FQ6" s="3"/>
-      <c r="FR6" s="3"/>
-      <c r="FS6" s="3"/>
-      <c r="FT6" s="3"/>
-      <c r="FU6" s="3"/>
-      <c r="FV6" s="3"/>
-      <c r="FW6" s="3"/>
-      <c r="FX6" s="3"/>
-      <c r="FY6" s="3"/>
-      <c r="FZ6" s="3"/>
-      <c r="GA6" s="3"/>
-      <c r="GB6" s="3"/>
-      <c r="GC6" s="3"/>
-      <c r="GD6" s="3"/>
-      <c r="GE6" s="3"/>
-      <c r="GF6" s="3"/>
-      <c r="GG6" s="3"/>
-      <c r="GH6" s="3"/>
-      <c r="GI6" s="3"/>
-      <c r="GJ6" s="3"/>
-      <c r="GK6" s="3"/>
-      <c r="GL6" s="3"/>
-      <c r="GM6" s="3"/>
-      <c r="GN6" s="3"/>
-      <c r="GO6" s="3"/>
-      <c r="GP6" s="3"/>
-      <c r="GQ6" s="3"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="4"/>
+      <c r="DQ6" s="4"/>
+      <c r="DR6" s="4"/>
+      <c r="DS6" s="4"/>
+      <c r="DT6" s="4"/>
+      <c r="DU6" s="4"/>
+      <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
+      <c r="DX6" s="4"/>
+      <c r="DY6" s="4"/>
+      <c r="DZ6" s="4"/>
+      <c r="EA6" s="4"/>
+      <c r="EB6" s="4"/>
+      <c r="EC6" s="4"/>
+      <c r="ED6" s="4"/>
+      <c r="EE6" s="4"/>
+      <c r="EF6" s="4"/>
+      <c r="EG6" s="4"/>
+      <c r="EH6" s="4"/>
+      <c r="EI6" s="4"/>
+      <c r="EJ6" s="4"/>
+      <c r="EK6" s="4"/>
+      <c r="EL6" s="4"/>
+      <c r="EM6" s="4"/>
+      <c r="EN6" s="4"/>
+      <c r="EO6" s="4"/>
+      <c r="EP6" s="4"/>
+      <c r="EQ6" s="4"/>
+      <c r="ER6" s="4"/>
+      <c r="ES6" s="4"/>
+      <c r="ET6" s="4"/>
+      <c r="EU6" s="4"/>
+      <c r="EV6" s="4"/>
+      <c r="EW6" s="4"/>
+      <c r="EX6" s="4"/>
+      <c r="EY6" s="4"/>
+      <c r="EZ6" s="4"/>
+      <c r="FA6" s="4"/>
+      <c r="FB6" s="4"/>
+      <c r="FC6" s="4"/>
+      <c r="FD6" s="4"/>
+      <c r="FE6" s="4"/>
+      <c r="FF6" s="4"/>
+      <c r="FG6" s="4"/>
+      <c r="FH6" s="4"/>
+      <c r="FI6" s="4"/>
+      <c r="FJ6" s="4"/>
+      <c r="FK6" s="4"/>
+      <c r="FL6" s="4"/>
+      <c r="FM6" s="4"/>
+      <c r="FN6" s="4"/>
+      <c r="FO6" s="4"/>
+      <c r="FP6" s="4"/>
+      <c r="FQ6" s="4"/>
+      <c r="FR6" s="4"/>
+      <c r="FS6" s="4"/>
+      <c r="FT6" s="4"/>
+      <c r="FU6" s="4"/>
+      <c r="FV6" s="4"/>
+      <c r="FW6" s="4"/>
+      <c r="FX6" s="4"/>
+      <c r="FY6" s="4"/>
+      <c r="FZ6" s="4"/>
+      <c r="GA6" s="4"/>
+      <c r="GB6" s="4"/>
+      <c r="GC6" s="4"/>
+      <c r="GD6" s="4"/>
+      <c r="GE6" s="4"/>
+      <c r="GF6" s="4"/>
+      <c r="GG6" s="4"/>
+      <c r="GH6" s="4"/>
+      <c r="GI6" s="4"/>
+      <c r="GJ6" s="4"/>
+      <c r="GK6" s="4"/>
+      <c r="GL6" s="4"/>
+      <c r="GM6" s="4"/>
+      <c r="GN6" s="4"/>
+      <c r="GO6" s="4"/>
+      <c r="GP6" s="4"/>
+      <c r="GQ6" s="4"/>
+      <c r="GR6" s="4"/>
+      <c r="GS6" s="4"/>
+      <c r="GT6" s="4"/>
+      <c r="GU6" s="4"/>
+      <c r="GV6" s="4"/>
+      <c r="GW6" s="4"/>
+      <c r="GX6" s="4"/>
+      <c r="GY6" s="4"/>
+      <c r="GZ6" s="4"/>
+      <c r="HA6" s="4"/>
+      <c r="HB6" s="4"/>
+      <c r="HC6" s="4"/>
+      <c r="HD6" s="4"/>
+      <c r="HE6" s="4"/>
+      <c r="HF6" s="4"/>
+      <c r="HG6" s="4"/>
+      <c r="HH6" s="4"/>
+      <c r="HI6" s="4"/>
+      <c r="HJ6" s="4"/>
+      <c r="HK6" s="4"/>
+      <c r="HL6" s="4"/>
     </row>
-    <row r="7" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2220,8 +2364,31 @@
       <c r="GO7" s="1"/>
       <c r="GP7" s="1"/>
       <c r="GQ7" s="1"/>
+      <c r="GR7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GS7" s="1"/>
+      <c r="GT7" s="1"/>
+      <c r="GU7" s="1"/>
+      <c r="GV7" s="1"/>
+      <c r="GW7" s="1"/>
+      <c r="GX7" s="1"/>
+      <c r="GY7" s="1"/>
+      <c r="GZ7" s="1"/>
+      <c r="HA7" s="1"/>
+      <c r="HB7" s="1"/>
+      <c r="HC7" s="1"/>
+      <c r="HD7" s="1"/>
+      <c r="HE7" s="1"/>
+      <c r="HF7" s="1"/>
+      <c r="HG7" s="1"/>
+      <c r="HH7" s="1"/>
+      <c r="HI7" s="1"/>
+      <c r="HJ7" s="1"/>
+      <c r="HK7" s="1"/>
+      <c r="HL7" s="1"/>
     </row>
-    <row r="8" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2421,8 +2588,29 @@
       <c r="GO8" s="1"/>
       <c r="GP8" s="1"/>
       <c r="GQ8" s="1"/>
+      <c r="GR8" s="1"/>
+      <c r="GS8" s="1"/>
+      <c r="GT8" s="1"/>
+      <c r="GU8" s="1"/>
+      <c r="GV8" s="1"/>
+      <c r="GW8" s="1"/>
+      <c r="GX8" s="1"/>
+      <c r="GY8" s="1"/>
+      <c r="GZ8" s="1"/>
+      <c r="HA8" s="1"/>
+      <c r="HB8" s="1"/>
+      <c r="HC8" s="1"/>
+      <c r="HD8" s="1"/>
+      <c r="HE8" s="1"/>
+      <c r="HF8" s="1"/>
+      <c r="HG8" s="1"/>
+      <c r="HH8" s="1"/>
+      <c r="HI8" s="1"/>
+      <c r="HJ8" s="1"/>
+      <c r="HK8" s="1"/>
+      <c r="HL8" s="1"/>
     </row>
-    <row r="9" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2622,8 +2810,29 @@
       <c r="GO9" s="1"/>
       <c r="GP9" s="1"/>
       <c r="GQ9" s="1"/>
+      <c r="GR9" s="1"/>
+      <c r="GS9" s="1"/>
+      <c r="GT9" s="1"/>
+      <c r="GU9" s="1"/>
+      <c r="GV9" s="1"/>
+      <c r="GW9" s="1"/>
+      <c r="GX9" s="1"/>
+      <c r="GY9" s="1"/>
+      <c r="GZ9" s="1"/>
+      <c r="HA9" s="1"/>
+      <c r="HB9" s="1"/>
+      <c r="HC9" s="1"/>
+      <c r="HD9" s="1"/>
+      <c r="HE9" s="1"/>
+      <c r="HF9" s="1"/>
+      <c r="HG9" s="1"/>
+      <c r="HH9" s="1"/>
+      <c r="HI9" s="1"/>
+      <c r="HJ9" s="1"/>
+      <c r="HK9" s="1"/>
+      <c r="HL9" s="1"/>
     </row>
-    <row r="10" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2843,8 +3052,31 @@
       <c r="GO10" s="1"/>
       <c r="GP10" s="1"/>
       <c r="GQ10" s="1"/>
+      <c r="GR10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="GS10" s="1"/>
+      <c r="GT10" s="1"/>
+      <c r="GU10" s="1"/>
+      <c r="GV10" s="1"/>
+      <c r="GW10" s="1"/>
+      <c r="GX10" s="1"/>
+      <c r="GY10" s="1"/>
+      <c r="GZ10" s="1"/>
+      <c r="HA10" s="1"/>
+      <c r="HB10" s="1"/>
+      <c r="HC10" s="1"/>
+      <c r="HD10" s="1"/>
+      <c r="HE10" s="1"/>
+      <c r="HF10" s="1"/>
+      <c r="HG10" s="1"/>
+      <c r="HH10" s="1"/>
+      <c r="HI10" s="1"/>
+      <c r="HJ10" s="1"/>
+      <c r="HK10" s="1"/>
+      <c r="HL10" s="1"/>
     </row>
-    <row r="11" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3044,8 +3276,29 @@
       <c r="GO11" s="1"/>
       <c r="GP11" s="1"/>
       <c r="GQ11" s="1"/>
+      <c r="GR11" s="1"/>
+      <c r="GS11" s="1"/>
+      <c r="GT11" s="1"/>
+      <c r="GU11" s="1"/>
+      <c r="GV11" s="1"/>
+      <c r="GW11" s="1"/>
+      <c r="GX11" s="1"/>
+      <c r="GY11" s="1"/>
+      <c r="GZ11" s="1"/>
+      <c r="HA11" s="1"/>
+      <c r="HB11" s="1"/>
+      <c r="HC11" s="1"/>
+      <c r="HD11" s="1"/>
+      <c r="HE11" s="1"/>
+      <c r="HF11" s="1"/>
+      <c r="HG11" s="1"/>
+      <c r="HH11" s="1"/>
+      <c r="HI11" s="1"/>
+      <c r="HJ11" s="1"/>
+      <c r="HK11" s="1"/>
+      <c r="HL11" s="1"/>
     </row>
-    <row r="12" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3245,8 +3498,29 @@
       <c r="GO12" s="1"/>
       <c r="GP12" s="1"/>
       <c r="GQ12" s="1"/>
+      <c r="GR12" s="1"/>
+      <c r="GS12" s="1"/>
+      <c r="GT12" s="1"/>
+      <c r="GU12" s="1"/>
+      <c r="GV12" s="1"/>
+      <c r="GW12" s="1"/>
+      <c r="GX12" s="1"/>
+      <c r="GY12" s="1"/>
+      <c r="GZ12" s="1"/>
+      <c r="HA12" s="1"/>
+      <c r="HB12" s="1"/>
+      <c r="HC12" s="1"/>
+      <c r="HD12" s="1"/>
+      <c r="HE12" s="1"/>
+      <c r="HF12" s="1"/>
+      <c r="HG12" s="1"/>
+      <c r="HH12" s="1"/>
+      <c r="HI12" s="1"/>
+      <c r="HJ12" s="1"/>
+      <c r="HK12" s="1"/>
+      <c r="HL12" s="1"/>
     </row>
-    <row r="13" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -3466,8 +3740,31 @@
       <c r="GO13" s="1"/>
       <c r="GP13" s="1"/>
       <c r="GQ13" s="1"/>
+      <c r="GR13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="GS13" s="1"/>
+      <c r="GT13" s="1"/>
+      <c r="GU13" s="1"/>
+      <c r="GV13" s="1"/>
+      <c r="GW13" s="1"/>
+      <c r="GX13" s="1"/>
+      <c r="GY13" s="1"/>
+      <c r="GZ13" s="1"/>
+      <c r="HA13" s="1"/>
+      <c r="HB13" s="1"/>
+      <c r="HC13" s="1"/>
+      <c r="HD13" s="1"/>
+      <c r="HE13" s="1"/>
+      <c r="HF13" s="1"/>
+      <c r="HG13" s="1"/>
+      <c r="HH13" s="1"/>
+      <c r="HI13" s="1"/>
+      <c r="HJ13" s="1"/>
+      <c r="HK13" s="1"/>
+      <c r="HL13" s="1"/>
     </row>
-    <row r="14" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3667,8 +3964,29 @@
       <c r="GO14" s="1"/>
       <c r="GP14" s="1"/>
       <c r="GQ14" s="1"/>
+      <c r="GR14" s="1"/>
+      <c r="GS14" s="1"/>
+      <c r="GT14" s="1"/>
+      <c r="GU14" s="1"/>
+      <c r="GV14" s="1"/>
+      <c r="GW14" s="1"/>
+      <c r="GX14" s="1"/>
+      <c r="GY14" s="1"/>
+      <c r="GZ14" s="1"/>
+      <c r="HA14" s="1"/>
+      <c r="HB14" s="1"/>
+      <c r="HC14" s="1"/>
+      <c r="HD14" s="1"/>
+      <c r="HE14" s="1"/>
+      <c r="HF14" s="1"/>
+      <c r="HG14" s="1"/>
+      <c r="HH14" s="1"/>
+      <c r="HI14" s="1"/>
+      <c r="HJ14" s="1"/>
+      <c r="HK14" s="1"/>
+      <c r="HL14" s="1"/>
     </row>
-    <row r="15" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -3868,795 +4186,816 @@
       <c r="GO15" s="1"/>
       <c r="GP15" s="1"/>
       <c r="GQ15" s="1"/>
-    </row>
-    <row r="16" spans="1:199" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="GR15" s="1"/>
+      <c r="GS15" s="1"/>
+      <c r="GT15" s="1"/>
+      <c r="GU15" s="1"/>
+      <c r="GV15" s="1"/>
+      <c r="GW15" s="1"/>
+      <c r="GX15" s="1"/>
+      <c r="GY15" s="1"/>
+      <c r="GZ15" s="1"/>
+      <c r="HA15" s="1"/>
+      <c r="HB15" s="1"/>
+      <c r="HC15" s="1"/>
+      <c r="HD15" s="1"/>
+      <c r="HE15" s="1"/>
+      <c r="HF15" s="1"/>
+      <c r="HG15" s="1"/>
+      <c r="HH15" s="1"/>
+      <c r="HI15" s="1"/>
+      <c r="HJ15" s="1"/>
+      <c r="HK15" s="1"/>
+      <c r="HL15" s="1"/>
     </row>
     <row r="17" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
     </row>
     <row r="18" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
     </row>
     <row r="19" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
     </row>
     <row r="20" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
     </row>
     <row r="21" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
-      <c r="BJ21" s="4"/>
-      <c r="BK21" s="4"/>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
     </row>
     <row r="22" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
-      <c r="BL22" s="4"/>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="4"/>
-      <c r="BO22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
     </row>
     <row r="23" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-      <c r="BL23" s="4"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="4"/>
-      <c r="BO23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
     </row>
     <row r="24" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
-      <c r="BO24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
     </row>
     <row r="25" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-      <c r="BF25" s="4"/>
-      <c r="BG25" s="4"/>
-      <c r="BH25" s="4"/>
-      <c r="BI25" s="4"/>
-      <c r="BJ25" s="4"/>
-      <c r="BK25" s="4"/>
-      <c r="BL25" s="4"/>
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="4"/>
-      <c r="BO25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
     </row>
     <row r="26" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
-      <c r="BH26" s="4"/>
-      <c r="BI26" s="4"/>
-      <c r="BJ26" s="4"/>
-      <c r="BK26" s="4"/>
-      <c r="BL26" s="4"/>
-      <c r="BM26" s="4"/>
-      <c r="BN26" s="4"/>
-      <c r="BO26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
     </row>
     <row r="27" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="4"/>
-      <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
-      <c r="BI27" s="4"/>
-      <c r="BJ27" s="4"/>
-      <c r="BK27" s="4"/>
-      <c r="BL27" s="4"/>
-      <c r="BM27" s="4"/>
-      <c r="BN27" s="4"/>
-      <c r="BO27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="FB10:FV12"/>
-    <mergeCell ref="FW10:GQ12"/>
-    <mergeCell ref="FB13:FV15"/>
-    <mergeCell ref="FW13:GQ15"/>
-    <mergeCell ref="A17:BO27"/>
-    <mergeCell ref="FB1:FV3"/>
-    <mergeCell ref="FW1:GQ3"/>
-    <mergeCell ref="FB4:FV6"/>
-    <mergeCell ref="FW4:GQ6"/>
-    <mergeCell ref="FB7:FV9"/>
-    <mergeCell ref="FW7:GQ9"/>
-    <mergeCell ref="BA13:BU15"/>
-    <mergeCell ref="BV13:CP15"/>
-    <mergeCell ref="CQ13:DK15"/>
-    <mergeCell ref="DL13:EF15"/>
-    <mergeCell ref="EG4:FA6"/>
-    <mergeCell ref="EG1:FA3"/>
-    <mergeCell ref="EG7:FA9"/>
-    <mergeCell ref="EG10:FA12"/>
-    <mergeCell ref="EG13:FA15"/>
+  <mergeCells count="56">
+    <mergeCell ref="GR1:HL3"/>
+    <mergeCell ref="GR4:HL6"/>
+    <mergeCell ref="GR7:HL9"/>
+    <mergeCell ref="GR10:HL12"/>
+    <mergeCell ref="GR13:HL15"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:J6"/>
+    <mergeCell ref="A7:J9"/>
+    <mergeCell ref="A10:J12"/>
+    <mergeCell ref="A13:J15"/>
+    <mergeCell ref="K1:AE3"/>
+    <mergeCell ref="K4:AE6"/>
+    <mergeCell ref="K7:AE9"/>
+    <mergeCell ref="K10:AE12"/>
+    <mergeCell ref="K13:AE15"/>
+    <mergeCell ref="BA1:BU3"/>
+    <mergeCell ref="BV1:CP3"/>
+    <mergeCell ref="CQ1:DK3"/>
+    <mergeCell ref="DL1:EF3"/>
+    <mergeCell ref="AF4:AZ6"/>
+    <mergeCell ref="BA4:BU6"/>
+    <mergeCell ref="BV4:CP6"/>
+    <mergeCell ref="CQ4:DK6"/>
+    <mergeCell ref="DL4:EF6"/>
+    <mergeCell ref="AF1:AZ3"/>
     <mergeCell ref="BA7:BU9"/>
     <mergeCell ref="BV7:CP9"/>
     <mergeCell ref="CQ7:DK9"/>
@@ -4666,28 +5005,28 @@
     <mergeCell ref="BV10:CP12"/>
     <mergeCell ref="CQ10:DK12"/>
     <mergeCell ref="DL10:EF12"/>
-    <mergeCell ref="BA1:BU3"/>
-    <mergeCell ref="BV1:CP3"/>
-    <mergeCell ref="CQ1:DK3"/>
-    <mergeCell ref="DL1:EF3"/>
-    <mergeCell ref="AF4:AZ6"/>
-    <mergeCell ref="BA4:BU6"/>
-    <mergeCell ref="BV4:CP6"/>
-    <mergeCell ref="CQ4:DK6"/>
-    <mergeCell ref="DL4:EF6"/>
-    <mergeCell ref="K1:AE3"/>
-    <mergeCell ref="K4:AE6"/>
-    <mergeCell ref="K7:AE9"/>
-    <mergeCell ref="K10:AE12"/>
-    <mergeCell ref="K13:AE15"/>
-    <mergeCell ref="AF1:AZ3"/>
     <mergeCell ref="AF7:AZ9"/>
+    <mergeCell ref="EG4:FA6"/>
+    <mergeCell ref="EG1:FA3"/>
+    <mergeCell ref="EG7:FA9"/>
+    <mergeCell ref="EG10:FA12"/>
+    <mergeCell ref="EG13:FA15"/>
+    <mergeCell ref="FB1:FV3"/>
+    <mergeCell ref="FW1:GQ3"/>
+    <mergeCell ref="FB4:FV6"/>
+    <mergeCell ref="FW4:GQ6"/>
+    <mergeCell ref="FB7:FV9"/>
+    <mergeCell ref="FW7:GQ9"/>
+    <mergeCell ref="FB10:FV12"/>
+    <mergeCell ref="FW10:GQ12"/>
+    <mergeCell ref="FB13:FV15"/>
+    <mergeCell ref="FW13:GQ15"/>
+    <mergeCell ref="A17:BO27"/>
+    <mergeCell ref="BA13:BU15"/>
+    <mergeCell ref="BV13:CP15"/>
+    <mergeCell ref="CQ13:DK15"/>
+    <mergeCell ref="DL13:EF15"/>
     <mergeCell ref="AF13:AZ15"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:J6"/>
-    <mergeCell ref="A7:J9"/>
-    <mergeCell ref="A10:J12"/>
-    <mergeCell ref="A13:J15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スパダリセブン(UnityData)/Assets/Resources/プランナー監獄エリア/Story/ストーリーCSVの記入ルール.xlsx
+++ b/スパダリセブン(UnityData)/Assets/Resources/プランナー監獄エリア/Story/ストーリーCSVの記入ルール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimim\OneDrive\デスクトップ\SuperDarling7\スパダリセブン(UnityData)\Assets\Resources\プランナー監獄エリア\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C748079C-7AFA-4648-83AF-2D7A73A14557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE6F177-E835-4DA2-9A53-4F5817D4023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F47F9A72-F10B-4779-A4EA-383775F0BB0E}"/>
   </bookViews>
@@ -352,7 +352,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>仕様するBGM名を入力</t>
+    <t>仕様するBGM名を入力
+同じBGMを流すなら0、BGMを止めるならStop</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
     </rPh>
@@ -361,6 +362,15 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,13 +426,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -761,7 +771,7 @@
   <dimension ref="A1:HL27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DH1" workbookViewId="0">
-      <selection activeCell="GR7" sqref="GR7:HL9"/>
+      <selection activeCell="HI20" sqref="HI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1469,7 +1479,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="1"/>
@@ -1492,30 +1502,30 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="4" t="s">
+      <c r="AF4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4" t="s">
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="BB4" s="1"/>
@@ -1538,30 +1548,30 @@
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
-      <c r="BV4" s="4" t="s">
+      <c r="BV4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="BW4" s="4"/>
-      <c r="BX4" s="4"/>
-      <c r="BY4" s="4"/>
-      <c r="BZ4" s="4"/>
-      <c r="CA4" s="4"/>
-      <c r="CB4" s="4"/>
-      <c r="CC4" s="4"/>
-      <c r="CD4" s="4"/>
-      <c r="CE4" s="4"/>
-      <c r="CF4" s="4"/>
-      <c r="CG4" s="4"/>
-      <c r="CH4" s="4"/>
-      <c r="CI4" s="4"/>
-      <c r="CJ4" s="4"/>
-      <c r="CK4" s="4"/>
-      <c r="CL4" s="4"/>
-      <c r="CM4" s="4"/>
-      <c r="CN4" s="4"/>
-      <c r="CO4" s="4"/>
-      <c r="CP4" s="4"/>
-      <c r="CQ4" s="4" t="s">
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CL4" s="2"/>
+      <c r="CM4" s="2"/>
+      <c r="CN4" s="2"/>
+      <c r="CO4" s="2"/>
+      <c r="CP4" s="2"/>
+      <c r="CQ4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="CR4" s="1"/>
@@ -1584,121 +1594,121 @@
       <c r="DI4" s="1"/>
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
-      <c r="DL4" s="4" t="s">
+      <c r="DL4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="DM4" s="4"/>
-      <c r="DN4" s="4"/>
-      <c r="DO4" s="4"/>
-      <c r="DP4" s="4"/>
-      <c r="DQ4" s="4"/>
-      <c r="DR4" s="4"/>
-      <c r="DS4" s="4"/>
-      <c r="DT4" s="4"/>
-      <c r="DU4" s="4"/>
-      <c r="DV4" s="4"/>
-      <c r="DW4" s="4"/>
-      <c r="DX4" s="4"/>
-      <c r="DY4" s="4"/>
-      <c r="DZ4" s="4"/>
-      <c r="EA4" s="4"/>
-      <c r="EB4" s="4"/>
-      <c r="EC4" s="4"/>
-      <c r="ED4" s="4"/>
-      <c r="EE4" s="4"/>
-      <c r="EF4" s="4"/>
-      <c r="EG4" s="4" t="s">
+      <c r="DM4" s="2"/>
+      <c r="DN4" s="2"/>
+      <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
+      <c r="DQ4" s="2"/>
+      <c r="DR4" s="2"/>
+      <c r="DS4" s="2"/>
+      <c r="DT4" s="2"/>
+      <c r="DU4" s="2"/>
+      <c r="DV4" s="2"/>
+      <c r="DW4" s="2"/>
+      <c r="DX4" s="2"/>
+      <c r="DY4" s="2"/>
+      <c r="DZ4" s="2"/>
+      <c r="EA4" s="2"/>
+      <c r="EB4" s="2"/>
+      <c r="EC4" s="2"/>
+      <c r="ED4" s="2"/>
+      <c r="EE4" s="2"/>
+      <c r="EF4" s="2"/>
+      <c r="EG4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="EH4" s="4"/>
-      <c r="EI4" s="4"/>
-      <c r="EJ4" s="4"/>
-      <c r="EK4" s="4"/>
-      <c r="EL4" s="4"/>
-      <c r="EM4" s="4"/>
-      <c r="EN4" s="4"/>
-      <c r="EO4" s="4"/>
-      <c r="EP4" s="4"/>
-      <c r="EQ4" s="4"/>
-      <c r="ER4" s="4"/>
-      <c r="ES4" s="4"/>
-      <c r="ET4" s="4"/>
-      <c r="EU4" s="4"/>
-      <c r="EV4" s="4"/>
-      <c r="EW4" s="4"/>
-      <c r="EX4" s="4"/>
-      <c r="EY4" s="4"/>
-      <c r="EZ4" s="4"/>
-      <c r="FA4" s="4"/>
-      <c r="FB4" s="4" t="s">
+      <c r="EH4" s="2"/>
+      <c r="EI4" s="2"/>
+      <c r="EJ4" s="2"/>
+      <c r="EK4" s="2"/>
+      <c r="EL4" s="2"/>
+      <c r="EM4" s="2"/>
+      <c r="EN4" s="2"/>
+      <c r="EO4" s="2"/>
+      <c r="EP4" s="2"/>
+      <c r="EQ4" s="2"/>
+      <c r="ER4" s="2"/>
+      <c r="ES4" s="2"/>
+      <c r="ET4" s="2"/>
+      <c r="EU4" s="2"/>
+      <c r="EV4" s="2"/>
+      <c r="EW4" s="2"/>
+      <c r="EX4" s="2"/>
+      <c r="EY4" s="2"/>
+      <c r="EZ4" s="2"/>
+      <c r="FA4" s="2"/>
+      <c r="FB4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="FC4" s="4"/>
-      <c r="FD4" s="4"/>
-      <c r="FE4" s="4"/>
-      <c r="FF4" s="4"/>
-      <c r="FG4" s="4"/>
-      <c r="FH4" s="4"/>
-      <c r="FI4" s="4"/>
-      <c r="FJ4" s="4"/>
-      <c r="FK4" s="4"/>
-      <c r="FL4" s="4"/>
-      <c r="FM4" s="4"/>
-      <c r="FN4" s="4"/>
-      <c r="FO4" s="4"/>
-      <c r="FP4" s="4"/>
-      <c r="FQ4" s="4"/>
-      <c r="FR4" s="4"/>
-      <c r="FS4" s="4"/>
-      <c r="FT4" s="4"/>
-      <c r="FU4" s="4"/>
-      <c r="FV4" s="4"/>
-      <c r="FW4" s="4" t="s">
+      <c r="FC4" s="2"/>
+      <c r="FD4" s="2"/>
+      <c r="FE4" s="2"/>
+      <c r="FF4" s="2"/>
+      <c r="FG4" s="2"/>
+      <c r="FH4" s="2"/>
+      <c r="FI4" s="2"/>
+      <c r="FJ4" s="2"/>
+      <c r="FK4" s="2"/>
+      <c r="FL4" s="2"/>
+      <c r="FM4" s="2"/>
+      <c r="FN4" s="2"/>
+      <c r="FO4" s="2"/>
+      <c r="FP4" s="2"/>
+      <c r="FQ4" s="2"/>
+      <c r="FR4" s="2"/>
+      <c r="FS4" s="2"/>
+      <c r="FT4" s="2"/>
+      <c r="FU4" s="2"/>
+      <c r="FV4" s="2"/>
+      <c r="FW4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="FX4" s="4"/>
-      <c r="FY4" s="4"/>
-      <c r="FZ4" s="4"/>
-      <c r="GA4" s="4"/>
-      <c r="GB4" s="4"/>
-      <c r="GC4" s="4"/>
-      <c r="GD4" s="4"/>
-      <c r="GE4" s="4"/>
-      <c r="GF4" s="4"/>
-      <c r="GG4" s="4"/>
-      <c r="GH4" s="4"/>
-      <c r="GI4" s="4"/>
-      <c r="GJ4" s="4"/>
-      <c r="GK4" s="4"/>
-      <c r="GL4" s="4"/>
-      <c r="GM4" s="4"/>
-      <c r="GN4" s="4"/>
-      <c r="GO4" s="4"/>
-      <c r="GP4" s="4"/>
-      <c r="GQ4" s="4"/>
-      <c r="GR4" s="4" t="s">
+      <c r="FX4" s="2"/>
+      <c r="FY4" s="2"/>
+      <c r="FZ4" s="2"/>
+      <c r="GA4" s="2"/>
+      <c r="GB4" s="2"/>
+      <c r="GC4" s="2"/>
+      <c r="GD4" s="2"/>
+      <c r="GE4" s="2"/>
+      <c r="GF4" s="2"/>
+      <c r="GG4" s="2"/>
+      <c r="GH4" s="2"/>
+      <c r="GI4" s="2"/>
+      <c r="GJ4" s="2"/>
+      <c r="GK4" s="2"/>
+      <c r="GL4" s="2"/>
+      <c r="GM4" s="2"/>
+      <c r="GN4" s="2"/>
+      <c r="GO4" s="2"/>
+      <c r="GP4" s="2"/>
+      <c r="GQ4" s="2"/>
+      <c r="GR4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="GS4" s="4"/>
-      <c r="GT4" s="4"/>
-      <c r="GU4" s="4"/>
-      <c r="GV4" s="4"/>
-      <c r="GW4" s="4"/>
-      <c r="GX4" s="4"/>
-      <c r="GY4" s="4"/>
-      <c r="GZ4" s="4"/>
-      <c r="HA4" s="4"/>
-      <c r="HB4" s="4"/>
-      <c r="HC4" s="4"/>
-      <c r="HD4" s="4"/>
-      <c r="HE4" s="4"/>
-      <c r="HF4" s="4"/>
-      <c r="HG4" s="4"/>
-      <c r="HH4" s="4"/>
-      <c r="HI4" s="4"/>
-      <c r="HJ4" s="4"/>
-      <c r="HK4" s="4"/>
-      <c r="HL4" s="4"/>
+      <c r="GS4" s="2"/>
+      <c r="GT4" s="2"/>
+      <c r="GU4" s="2"/>
+      <c r="GV4" s="2"/>
+      <c r="GW4" s="2"/>
+      <c r="GX4" s="2"/>
+      <c r="GY4" s="2"/>
+      <c r="GZ4" s="2"/>
+      <c r="HA4" s="2"/>
+      <c r="HB4" s="2"/>
+      <c r="HC4" s="2"/>
+      <c r="HD4" s="2"/>
+      <c r="HE4" s="2"/>
+      <c r="HF4" s="2"/>
+      <c r="HG4" s="2"/>
+      <c r="HH4" s="2"/>
+      <c r="HI4" s="2"/>
+      <c r="HJ4" s="2"/>
+      <c r="HK4" s="2"/>
+      <c r="HL4" s="2"/>
     </row>
     <row r="5" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -1732,27 +1742,27 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="AX5" s="4"/>
-      <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
@@ -1774,27 +1784,27 @@
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
-      <c r="BV5" s="4"/>
-      <c r="BW5" s="4"/>
-      <c r="BX5" s="4"/>
-      <c r="BY5" s="4"/>
-      <c r="BZ5" s="4"/>
-      <c r="CA5" s="4"/>
-      <c r="CB5" s="4"/>
-      <c r="CC5" s="4"/>
-      <c r="CD5" s="4"/>
-      <c r="CE5" s="4"/>
-      <c r="CF5" s="4"/>
-      <c r="CG5" s="4"/>
-      <c r="CH5" s="4"/>
-      <c r="CI5" s="4"/>
-      <c r="CJ5" s="4"/>
-      <c r="CK5" s="4"/>
-      <c r="CL5" s="4"/>
-      <c r="CM5" s="4"/>
-      <c r="CN5" s="4"/>
-      <c r="CO5" s="4"/>
-      <c r="CP5" s="4"/>
+      <c r="BV5" s="2"/>
+      <c r="BW5" s="2"/>
+      <c r="BX5" s="2"/>
+      <c r="BY5" s="2"/>
+      <c r="BZ5" s="2"/>
+      <c r="CA5" s="2"/>
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CL5" s="2"/>
+      <c r="CM5" s="2"/>
+      <c r="CN5" s="2"/>
+      <c r="CO5" s="2"/>
+      <c r="CP5" s="2"/>
       <c r="CQ5" s="1"/>
       <c r="CR5" s="1"/>
       <c r="CS5" s="1"/>
@@ -1816,111 +1826,111 @@
       <c r="DI5" s="1"/>
       <c r="DJ5" s="1"/>
       <c r="DK5" s="1"/>
-      <c r="DL5" s="4"/>
-      <c r="DM5" s="4"/>
-      <c r="DN5" s="4"/>
-      <c r="DO5" s="4"/>
-      <c r="DP5" s="4"/>
-      <c r="DQ5" s="4"/>
-      <c r="DR5" s="4"/>
-      <c r="DS5" s="4"/>
-      <c r="DT5" s="4"/>
-      <c r="DU5" s="4"/>
-      <c r="DV5" s="4"/>
-      <c r="DW5" s="4"/>
-      <c r="DX5" s="4"/>
-      <c r="DY5" s="4"/>
-      <c r="DZ5" s="4"/>
-      <c r="EA5" s="4"/>
-      <c r="EB5" s="4"/>
-      <c r="EC5" s="4"/>
-      <c r="ED5" s="4"/>
-      <c r="EE5" s="4"/>
-      <c r="EF5" s="4"/>
-      <c r="EG5" s="4"/>
-      <c r="EH5" s="4"/>
-      <c r="EI5" s="4"/>
-      <c r="EJ5" s="4"/>
-      <c r="EK5" s="4"/>
-      <c r="EL5" s="4"/>
-      <c r="EM5" s="4"/>
-      <c r="EN5" s="4"/>
-      <c r="EO5" s="4"/>
-      <c r="EP5" s="4"/>
-      <c r="EQ5" s="4"/>
-      <c r="ER5" s="4"/>
-      <c r="ES5" s="4"/>
-      <c r="ET5" s="4"/>
-      <c r="EU5" s="4"/>
-      <c r="EV5" s="4"/>
-      <c r="EW5" s="4"/>
-      <c r="EX5" s="4"/>
-      <c r="EY5" s="4"/>
-      <c r="EZ5" s="4"/>
-      <c r="FA5" s="4"/>
-      <c r="FB5" s="4"/>
-      <c r="FC5" s="4"/>
-      <c r="FD5" s="4"/>
-      <c r="FE5" s="4"/>
-      <c r="FF5" s="4"/>
-      <c r="FG5" s="4"/>
-      <c r="FH5" s="4"/>
-      <c r="FI5" s="4"/>
-      <c r="FJ5" s="4"/>
-      <c r="FK5" s="4"/>
-      <c r="FL5" s="4"/>
-      <c r="FM5" s="4"/>
-      <c r="FN5" s="4"/>
-      <c r="FO5" s="4"/>
-      <c r="FP5" s="4"/>
-      <c r="FQ5" s="4"/>
-      <c r="FR5" s="4"/>
-      <c r="FS5" s="4"/>
-      <c r="FT5" s="4"/>
-      <c r="FU5" s="4"/>
-      <c r="FV5" s="4"/>
-      <c r="FW5" s="4"/>
-      <c r="FX5" s="4"/>
-      <c r="FY5" s="4"/>
-      <c r="FZ5" s="4"/>
-      <c r="GA5" s="4"/>
-      <c r="GB5" s="4"/>
-      <c r="GC5" s="4"/>
-      <c r="GD5" s="4"/>
-      <c r="GE5" s="4"/>
-      <c r="GF5" s="4"/>
-      <c r="GG5" s="4"/>
-      <c r="GH5" s="4"/>
-      <c r="GI5" s="4"/>
-      <c r="GJ5" s="4"/>
-      <c r="GK5" s="4"/>
-      <c r="GL5" s="4"/>
-      <c r="GM5" s="4"/>
-      <c r="GN5" s="4"/>
-      <c r="GO5" s="4"/>
-      <c r="GP5" s="4"/>
-      <c r="GQ5" s="4"/>
-      <c r="GR5" s="4"/>
-      <c r="GS5" s="4"/>
-      <c r="GT5" s="4"/>
-      <c r="GU5" s="4"/>
-      <c r="GV5" s="4"/>
-      <c r="GW5" s="4"/>
-      <c r="GX5" s="4"/>
-      <c r="GY5" s="4"/>
-      <c r="GZ5" s="4"/>
-      <c r="HA5" s="4"/>
-      <c r="HB5" s="4"/>
-      <c r="HC5" s="4"/>
-      <c r="HD5" s="4"/>
-      <c r="HE5" s="4"/>
-      <c r="HF5" s="4"/>
-      <c r="HG5" s="4"/>
-      <c r="HH5" s="4"/>
-      <c r="HI5" s="4"/>
-      <c r="HJ5" s="4"/>
-      <c r="HK5" s="4"/>
-      <c r="HL5" s="4"/>
+      <c r="DL5" s="2"/>
+      <c r="DM5" s="2"/>
+      <c r="DN5" s="2"/>
+      <c r="DO5" s="2"/>
+      <c r="DP5" s="2"/>
+      <c r="DQ5" s="2"/>
+      <c r="DR5" s="2"/>
+      <c r="DS5" s="2"/>
+      <c r="DT5" s="2"/>
+      <c r="DU5" s="2"/>
+      <c r="DV5" s="2"/>
+      <c r="DW5" s="2"/>
+      <c r="DX5" s="2"/>
+      <c r="DY5" s="2"/>
+      <c r="DZ5" s="2"/>
+      <c r="EA5" s="2"/>
+      <c r="EB5" s="2"/>
+      <c r="EC5" s="2"/>
+      <c r="ED5" s="2"/>
+      <c r="EE5" s="2"/>
+      <c r="EF5" s="2"/>
+      <c r="EG5" s="2"/>
+      <c r="EH5" s="2"/>
+      <c r="EI5" s="2"/>
+      <c r="EJ5" s="2"/>
+      <c r="EK5" s="2"/>
+      <c r="EL5" s="2"/>
+      <c r="EM5" s="2"/>
+      <c r="EN5" s="2"/>
+      <c r="EO5" s="2"/>
+      <c r="EP5" s="2"/>
+      <c r="EQ5" s="2"/>
+      <c r="ER5" s="2"/>
+      <c r="ES5" s="2"/>
+      <c r="ET5" s="2"/>
+      <c r="EU5" s="2"/>
+      <c r="EV5" s="2"/>
+      <c r="EW5" s="2"/>
+      <c r="EX5" s="2"/>
+      <c r="EY5" s="2"/>
+      <c r="EZ5" s="2"/>
+      <c r="FA5" s="2"/>
+      <c r="FB5" s="2"/>
+      <c r="FC5" s="2"/>
+      <c r="FD5" s="2"/>
+      <c r="FE5" s="2"/>
+      <c r="FF5" s="2"/>
+      <c r="FG5" s="2"/>
+      <c r="FH5" s="2"/>
+      <c r="FI5" s="2"/>
+      <c r="FJ5" s="2"/>
+      <c r="FK5" s="2"/>
+      <c r="FL5" s="2"/>
+      <c r="FM5" s="2"/>
+      <c r="FN5" s="2"/>
+      <c r="FO5" s="2"/>
+      <c r="FP5" s="2"/>
+      <c r="FQ5" s="2"/>
+      <c r="FR5" s="2"/>
+      <c r="FS5" s="2"/>
+      <c r="FT5" s="2"/>
+      <c r="FU5" s="2"/>
+      <c r="FV5" s="2"/>
+      <c r="FW5" s="2"/>
+      <c r="FX5" s="2"/>
+      <c r="FY5" s="2"/>
+      <c r="FZ5" s="2"/>
+      <c r="GA5" s="2"/>
+      <c r="GB5" s="2"/>
+      <c r="GC5" s="2"/>
+      <c r="GD5" s="2"/>
+      <c r="GE5" s="2"/>
+      <c r="GF5" s="2"/>
+      <c r="GG5" s="2"/>
+      <c r="GH5" s="2"/>
+      <c r="GI5" s="2"/>
+      <c r="GJ5" s="2"/>
+      <c r="GK5" s="2"/>
+      <c r="GL5" s="2"/>
+      <c r="GM5" s="2"/>
+      <c r="GN5" s="2"/>
+      <c r="GO5" s="2"/>
+      <c r="GP5" s="2"/>
+      <c r="GQ5" s="2"/>
+      <c r="GR5" s="2"/>
+      <c r="GS5" s="2"/>
+      <c r="GT5" s="2"/>
+      <c r="GU5" s="2"/>
+      <c r="GV5" s="2"/>
+      <c r="GW5" s="2"/>
+      <c r="GX5" s="2"/>
+      <c r="GY5" s="2"/>
+      <c r="GZ5" s="2"/>
+      <c r="HA5" s="2"/>
+      <c r="HB5" s="2"/>
+      <c r="HC5" s="2"/>
+      <c r="HD5" s="2"/>
+      <c r="HE5" s="2"/>
+      <c r="HF5" s="2"/>
+      <c r="HG5" s="2"/>
+      <c r="HH5" s="2"/>
+      <c r="HI5" s="2"/>
+      <c r="HJ5" s="2"/>
+      <c r="HK5" s="2"/>
+      <c r="HL5" s="2"/>
     </row>
     <row r="6" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -1954,27 +1964,27 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="4"/>
-      <c r="AG6" s="4"/>
-      <c r="AH6" s="4"/>
-      <c r="AI6" s="4"/>
-      <c r="AJ6" s="4"/>
-      <c r="AK6" s="4"/>
-      <c r="AL6" s="4"/>
-      <c r="AM6" s="4"/>
-      <c r="AN6" s="4"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
@@ -1996,27 +2006,27 @@
       <c r="BS6" s="1"/>
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
-      <c r="BV6" s="4"/>
-      <c r="BW6" s="4"/>
-      <c r="BX6" s="4"/>
-      <c r="BY6" s="4"/>
-      <c r="BZ6" s="4"/>
-      <c r="CA6" s="4"/>
-      <c r="CB6" s="4"/>
-      <c r="CC6" s="4"/>
-      <c r="CD6" s="4"/>
-      <c r="CE6" s="4"/>
-      <c r="CF6" s="4"/>
-      <c r="CG6" s="4"/>
-      <c r="CH6" s="4"/>
-      <c r="CI6" s="4"/>
-      <c r="CJ6" s="4"/>
-      <c r="CK6" s="4"/>
-      <c r="CL6" s="4"/>
-      <c r="CM6" s="4"/>
-      <c r="CN6" s="4"/>
-      <c r="CO6" s="4"/>
-      <c r="CP6" s="4"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CL6" s="2"/>
+      <c r="CM6" s="2"/>
+      <c r="CN6" s="2"/>
+      <c r="CO6" s="2"/>
+      <c r="CP6" s="2"/>
       <c r="CQ6" s="1"/>
       <c r="CR6" s="1"/>
       <c r="CS6" s="1"/>
@@ -2038,111 +2048,111 @@
       <c r="DI6" s="1"/>
       <c r="DJ6" s="1"/>
       <c r="DK6" s="1"/>
-      <c r="DL6" s="4"/>
-      <c r="DM6" s="4"/>
-      <c r="DN6" s="4"/>
-      <c r="DO6" s="4"/>
-      <c r="DP6" s="4"/>
-      <c r="DQ6" s="4"/>
-      <c r="DR6" s="4"/>
-      <c r="DS6" s="4"/>
-      <c r="DT6" s="4"/>
-      <c r="DU6" s="4"/>
-      <c r="DV6" s="4"/>
-      <c r="DW6" s="4"/>
-      <c r="DX6" s="4"/>
-      <c r="DY6" s="4"/>
-      <c r="DZ6" s="4"/>
-      <c r="EA6" s="4"/>
-      <c r="EB6" s="4"/>
-      <c r="EC6" s="4"/>
-      <c r="ED6" s="4"/>
-      <c r="EE6" s="4"/>
-      <c r="EF6" s="4"/>
-      <c r="EG6" s="4"/>
-      <c r="EH6" s="4"/>
-      <c r="EI6" s="4"/>
-      <c r="EJ6" s="4"/>
-      <c r="EK6" s="4"/>
-      <c r="EL6" s="4"/>
-      <c r="EM6" s="4"/>
-      <c r="EN6" s="4"/>
-      <c r="EO6" s="4"/>
-      <c r="EP6" s="4"/>
-      <c r="EQ6" s="4"/>
-      <c r="ER6" s="4"/>
-      <c r="ES6" s="4"/>
-      <c r="ET6" s="4"/>
-      <c r="EU6" s="4"/>
-      <c r="EV6" s="4"/>
-      <c r="EW6" s="4"/>
-      <c r="EX6" s="4"/>
-      <c r="EY6" s="4"/>
-      <c r="EZ6" s="4"/>
-      <c r="FA6" s="4"/>
-      <c r="FB6" s="4"/>
-      <c r="FC6" s="4"/>
-      <c r="FD6" s="4"/>
-      <c r="FE6" s="4"/>
-      <c r="FF6" s="4"/>
-      <c r="FG6" s="4"/>
-      <c r="FH6" s="4"/>
-      <c r="FI6" s="4"/>
-      <c r="FJ6" s="4"/>
-      <c r="FK6" s="4"/>
-      <c r="FL6" s="4"/>
-      <c r="FM6" s="4"/>
-      <c r="FN6" s="4"/>
-      <c r="FO6" s="4"/>
-      <c r="FP6" s="4"/>
-      <c r="FQ6" s="4"/>
-      <c r="FR6" s="4"/>
-      <c r="FS6" s="4"/>
-      <c r="FT6" s="4"/>
-      <c r="FU6" s="4"/>
-      <c r="FV6" s="4"/>
-      <c r="FW6" s="4"/>
-      <c r="FX6" s="4"/>
-      <c r="FY6" s="4"/>
-      <c r="FZ6" s="4"/>
-      <c r="GA6" s="4"/>
-      <c r="GB6" s="4"/>
-      <c r="GC6" s="4"/>
-      <c r="GD6" s="4"/>
-      <c r="GE6" s="4"/>
-      <c r="GF6" s="4"/>
-      <c r="GG6" s="4"/>
-      <c r="GH6" s="4"/>
-      <c r="GI6" s="4"/>
-      <c r="GJ6" s="4"/>
-      <c r="GK6" s="4"/>
-      <c r="GL6" s="4"/>
-      <c r="GM6" s="4"/>
-      <c r="GN6" s="4"/>
-      <c r="GO6" s="4"/>
-      <c r="GP6" s="4"/>
-      <c r="GQ6" s="4"/>
-      <c r="GR6" s="4"/>
-      <c r="GS6" s="4"/>
-      <c r="GT6" s="4"/>
-      <c r="GU6" s="4"/>
-      <c r="GV6" s="4"/>
-      <c r="GW6" s="4"/>
-      <c r="GX6" s="4"/>
-      <c r="GY6" s="4"/>
-      <c r="GZ6" s="4"/>
-      <c r="HA6" s="4"/>
-      <c r="HB6" s="4"/>
-      <c r="HC6" s="4"/>
-      <c r="HD6" s="4"/>
-      <c r="HE6" s="4"/>
-      <c r="HF6" s="4"/>
-      <c r="HG6" s="4"/>
-      <c r="HH6" s="4"/>
-      <c r="HI6" s="4"/>
-      <c r="HJ6" s="4"/>
-      <c r="HK6" s="4"/>
-      <c r="HL6" s="4"/>
+      <c r="DL6" s="2"/>
+      <c r="DM6" s="2"/>
+      <c r="DN6" s="2"/>
+      <c r="DO6" s="2"/>
+      <c r="DP6" s="2"/>
+      <c r="DQ6" s="2"/>
+      <c r="DR6" s="2"/>
+      <c r="DS6" s="2"/>
+      <c r="DT6" s="2"/>
+      <c r="DU6" s="2"/>
+      <c r="DV6" s="2"/>
+      <c r="DW6" s="2"/>
+      <c r="DX6" s="2"/>
+      <c r="DY6" s="2"/>
+      <c r="DZ6" s="2"/>
+      <c r="EA6" s="2"/>
+      <c r="EB6" s="2"/>
+      <c r="EC6" s="2"/>
+      <c r="ED6" s="2"/>
+      <c r="EE6" s="2"/>
+      <c r="EF6" s="2"/>
+      <c r="EG6" s="2"/>
+      <c r="EH6" s="2"/>
+      <c r="EI6" s="2"/>
+      <c r="EJ6" s="2"/>
+      <c r="EK6" s="2"/>
+      <c r="EL6" s="2"/>
+      <c r="EM6" s="2"/>
+      <c r="EN6" s="2"/>
+      <c r="EO6" s="2"/>
+      <c r="EP6" s="2"/>
+      <c r="EQ6" s="2"/>
+      <c r="ER6" s="2"/>
+      <c r="ES6" s="2"/>
+      <c r="ET6" s="2"/>
+      <c r="EU6" s="2"/>
+      <c r="EV6" s="2"/>
+      <c r="EW6" s="2"/>
+      <c r="EX6" s="2"/>
+      <c r="EY6" s="2"/>
+      <c r="EZ6" s="2"/>
+      <c r="FA6" s="2"/>
+      <c r="FB6" s="2"/>
+      <c r="FC6" s="2"/>
+      <c r="FD6" s="2"/>
+      <c r="FE6" s="2"/>
+      <c r="FF6" s="2"/>
+      <c r="FG6" s="2"/>
+      <c r="FH6" s="2"/>
+      <c r="FI6" s="2"/>
+      <c r="FJ6" s="2"/>
+      <c r="FK6" s="2"/>
+      <c r="FL6" s="2"/>
+      <c r="FM6" s="2"/>
+      <c r="FN6" s="2"/>
+      <c r="FO6" s="2"/>
+      <c r="FP6" s="2"/>
+      <c r="FQ6" s="2"/>
+      <c r="FR6" s="2"/>
+      <c r="FS6" s="2"/>
+      <c r="FT6" s="2"/>
+      <c r="FU6" s="2"/>
+      <c r="FV6" s="2"/>
+      <c r="FW6" s="2"/>
+      <c r="FX6" s="2"/>
+      <c r="FY6" s="2"/>
+      <c r="FZ6" s="2"/>
+      <c r="GA6" s="2"/>
+      <c r="GB6" s="2"/>
+      <c r="GC6" s="2"/>
+      <c r="GD6" s="2"/>
+      <c r="GE6" s="2"/>
+      <c r="GF6" s="2"/>
+      <c r="GG6" s="2"/>
+      <c r="GH6" s="2"/>
+      <c r="GI6" s="2"/>
+      <c r="GJ6" s="2"/>
+      <c r="GK6" s="2"/>
+      <c r="GL6" s="2"/>
+      <c r="GM6" s="2"/>
+      <c r="GN6" s="2"/>
+      <c r="GO6" s="2"/>
+      <c r="GP6" s="2"/>
+      <c r="GQ6" s="2"/>
+      <c r="GR6" s="2"/>
+      <c r="GS6" s="2"/>
+      <c r="GT6" s="2"/>
+      <c r="GU6" s="2"/>
+      <c r="GV6" s="2"/>
+      <c r="GW6" s="2"/>
+      <c r="GX6" s="2"/>
+      <c r="GY6" s="2"/>
+      <c r="GZ6" s="2"/>
+      <c r="HA6" s="2"/>
+      <c r="HB6" s="2"/>
+      <c r="HC6" s="2"/>
+      <c r="HD6" s="2"/>
+      <c r="HE6" s="2"/>
+      <c r="HF6" s="2"/>
+      <c r="HG6" s="2"/>
+      <c r="HH6" s="2"/>
+      <c r="HI6" s="2"/>
+      <c r="HJ6" s="2"/>
+      <c r="HK6" s="2"/>
+      <c r="HL6" s="2"/>
     </row>
     <row r="7" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -4209,783 +4219,799 @@
       <c r="HL15" s="1"/>
     </row>
     <row r="17" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="3"/>
-      <c r="AG17" s="3"/>
-      <c r="AH17" s="3"/>
-      <c r="AI17" s="3"/>
-      <c r="AJ17" s="3"/>
-      <c r="AK17" s="3"/>
-      <c r="AL17" s="3"/>
-      <c r="AM17" s="3"/>
-      <c r="AN17" s="3"/>
-      <c r="AO17" s="3"/>
-      <c r="AP17" s="3"/>
-      <c r="AQ17" s="3"/>
-      <c r="AR17" s="3"/>
-      <c r="AS17" s="3"/>
-      <c r="AT17" s="3"/>
-      <c r="AU17" s="3"/>
-      <c r="AV17" s="3"/>
-      <c r="AW17" s="3"/>
-      <c r="AX17" s="3"/>
-      <c r="AY17" s="3"/>
-      <c r="AZ17" s="3"/>
-      <c r="BA17" s="3"/>
-      <c r="BB17" s="3"/>
-      <c r="BC17" s="3"/>
-      <c r="BD17" s="3"/>
-      <c r="BE17" s="3"/>
-      <c r="BF17" s="3"/>
-      <c r="BG17" s="3"/>
-      <c r="BH17" s="3"/>
-      <c r="BI17" s="3"/>
-      <c r="BJ17" s="3"/>
-      <c r="BK17" s="3"/>
-      <c r="BL17" s="3"/>
-      <c r="BM17" s="3"/>
-      <c r="BN17" s="3"/>
-      <c r="BO17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+      <c r="BA17" s="4"/>
+      <c r="BB17" s="4"/>
+      <c r="BC17" s="4"/>
+      <c r="BD17" s="4"/>
+      <c r="BE17" s="4"/>
+      <c r="BF17" s="4"/>
+      <c r="BG17" s="4"/>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="4"/>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
+      <c r="BM17" s="4"/>
+      <c r="BN17" s="4"/>
+      <c r="BO17" s="4"/>
     </row>
     <row r="18" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="3"/>
-      <c r="AG18" s="3"/>
-      <c r="AH18" s="3"/>
-      <c r="AI18" s="3"/>
-      <c r="AJ18" s="3"/>
-      <c r="AK18" s="3"/>
-      <c r="AL18" s="3"/>
-      <c r="AM18" s="3"/>
-      <c r="AN18" s="3"/>
-      <c r="AO18" s="3"/>
-      <c r="AP18" s="3"/>
-      <c r="AQ18" s="3"/>
-      <c r="AR18" s="3"/>
-      <c r="AS18" s="3"/>
-      <c r="AT18" s="3"/>
-      <c r="AU18" s="3"/>
-      <c r="AV18" s="3"/>
-      <c r="AW18" s="3"/>
-      <c r="AX18" s="3"/>
-      <c r="AY18" s="3"/>
-      <c r="AZ18" s="3"/>
-      <c r="BA18" s="3"/>
-      <c r="BB18" s="3"/>
-      <c r="BC18" s="3"/>
-      <c r="BD18" s="3"/>
-      <c r="BE18" s="3"/>
-      <c r="BF18" s="3"/>
-      <c r="BG18" s="3"/>
-      <c r="BH18" s="3"/>
-      <c r="BI18" s="3"/>
-      <c r="BJ18" s="3"/>
-      <c r="BK18" s="3"/>
-      <c r="BL18" s="3"/>
-      <c r="BM18" s="3"/>
-      <c r="BN18" s="3"/>
-      <c r="BO18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="AX18" s="4"/>
+      <c r="AY18" s="4"/>
+      <c r="AZ18" s="4"/>
+      <c r="BA18" s="4"/>
+      <c r="BB18" s="4"/>
+      <c r="BC18" s="4"/>
+      <c r="BD18" s="4"/>
+      <c r="BE18" s="4"/>
+      <c r="BF18" s="4"/>
+      <c r="BG18" s="4"/>
+      <c r="BH18" s="4"/>
+      <c r="BI18" s="4"/>
+      <c r="BJ18" s="4"/>
+      <c r="BK18" s="4"/>
+      <c r="BL18" s="4"/>
+      <c r="BM18" s="4"/>
+      <c r="BN18" s="4"/>
+      <c r="BO18" s="4"/>
     </row>
     <row r="19" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
-      <c r="AD19" s="3"/>
-      <c r="AE19" s="3"/>
-      <c r="AF19" s="3"/>
-      <c r="AG19" s="3"/>
-      <c r="AH19" s="3"/>
-      <c r="AI19" s="3"/>
-      <c r="AJ19" s="3"/>
-      <c r="AK19" s="3"/>
-      <c r="AL19" s="3"/>
-      <c r="AM19" s="3"/>
-      <c r="AN19" s="3"/>
-      <c r="AO19" s="3"/>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="3"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="3"/>
-      <c r="AT19" s="3"/>
-      <c r="AU19" s="3"/>
-      <c r="AV19" s="3"/>
-      <c r="AW19" s="3"/>
-      <c r="AX19" s="3"/>
-      <c r="AY19" s="3"/>
-      <c r="AZ19" s="3"/>
-      <c r="BA19" s="3"/>
-      <c r="BB19" s="3"/>
-      <c r="BC19" s="3"/>
-      <c r="BD19" s="3"/>
-      <c r="BE19" s="3"/>
-      <c r="BF19" s="3"/>
-      <c r="BG19" s="3"/>
-      <c r="BH19" s="3"/>
-      <c r="BI19" s="3"/>
-      <c r="BJ19" s="3"/>
-      <c r="BK19" s="3"/>
-      <c r="BL19" s="3"/>
-      <c r="BM19" s="3"/>
-      <c r="BN19" s="3"/>
-      <c r="BO19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AG19" s="4"/>
+      <c r="AH19" s="4"/>
+      <c r="AI19" s="4"/>
+      <c r="AJ19" s="4"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
+      <c r="AM19" s="4"/>
+      <c r="AN19" s="4"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="AX19" s="4"/>
+      <c r="AY19" s="4"/>
+      <c r="AZ19" s="4"/>
+      <c r="BA19" s="4"/>
+      <c r="BB19" s="4"/>
+      <c r="BC19" s="4"/>
+      <c r="BD19" s="4"/>
+      <c r="BE19" s="4"/>
+      <c r="BF19" s="4"/>
+      <c r="BG19" s="4"/>
+      <c r="BH19" s="4"/>
+      <c r="BI19" s="4"/>
+      <c r="BJ19" s="4"/>
+      <c r="BK19" s="4"/>
+      <c r="BL19" s="4"/>
+      <c r="BM19" s="4"/>
+      <c r="BN19" s="4"/>
+      <c r="BO19" s="4"/>
     </row>
     <row r="20" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
-      <c r="AE20" s="3"/>
-      <c r="AF20" s="3"/>
-      <c r="AG20" s="3"/>
-      <c r="AH20" s="3"/>
-      <c r="AI20" s="3"/>
-      <c r="AJ20" s="3"/>
-      <c r="AK20" s="3"/>
-      <c r="AL20" s="3"/>
-      <c r="AM20" s="3"/>
-      <c r="AN20" s="3"/>
-      <c r="AO20" s="3"/>
-      <c r="AP20" s="3"/>
-      <c r="AQ20" s="3"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="3"/>
-      <c r="AT20" s="3"/>
-      <c r="AU20" s="3"/>
-      <c r="AV20" s="3"/>
-      <c r="AW20" s="3"/>
-      <c r="AX20" s="3"/>
-      <c r="AY20" s="3"/>
-      <c r="AZ20" s="3"/>
-      <c r="BA20" s="3"/>
-      <c r="BB20" s="3"/>
-      <c r="BC20" s="3"/>
-      <c r="BD20" s="3"/>
-      <c r="BE20" s="3"/>
-      <c r="BF20" s="3"/>
-      <c r="BG20" s="3"/>
-      <c r="BH20" s="3"/>
-      <c r="BI20" s="3"/>
-      <c r="BJ20" s="3"/>
-      <c r="BK20" s="3"/>
-      <c r="BL20" s="3"/>
-      <c r="BM20" s="3"/>
-      <c r="BN20" s="3"/>
-      <c r="BO20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+      <c r="BA20" s="4"/>
+      <c r="BB20" s="4"/>
+      <c r="BC20" s="4"/>
+      <c r="BD20" s="4"/>
+      <c r="BE20" s="4"/>
+      <c r="BF20" s="4"/>
+      <c r="BG20" s="4"/>
+      <c r="BH20" s="4"/>
+      <c r="BI20" s="4"/>
+      <c r="BJ20" s="4"/>
+      <c r="BK20" s="4"/>
+      <c r="BL20" s="4"/>
+      <c r="BM20" s="4"/>
+      <c r="BN20" s="4"/>
+      <c r="BO20" s="4"/>
     </row>
     <row r="21" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
-      <c r="AD21" s="3"/>
-      <c r="AE21" s="3"/>
-      <c r="AF21" s="3"/>
-      <c r="AG21" s="3"/>
-      <c r="AH21" s="3"/>
-      <c r="AI21" s="3"/>
-      <c r="AJ21" s="3"/>
-      <c r="AK21" s="3"/>
-      <c r="AL21" s="3"/>
-      <c r="AM21" s="3"/>
-      <c r="AN21" s="3"/>
-      <c r="AO21" s="3"/>
-      <c r="AP21" s="3"/>
-      <c r="AQ21" s="3"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="3"/>
-      <c r="AT21" s="3"/>
-      <c r="AU21" s="3"/>
-      <c r="AV21" s="3"/>
-      <c r="AW21" s="3"/>
-      <c r="AX21" s="3"/>
-      <c r="AY21" s="3"/>
-      <c r="AZ21" s="3"/>
-      <c r="BA21" s="3"/>
-      <c r="BB21" s="3"/>
-      <c r="BC21" s="3"/>
-      <c r="BD21" s="3"/>
-      <c r="BE21" s="3"/>
-      <c r="BF21" s="3"/>
-      <c r="BG21" s="3"/>
-      <c r="BH21" s="3"/>
-      <c r="BI21" s="3"/>
-      <c r="BJ21" s="3"/>
-      <c r="BK21" s="3"/>
-      <c r="BL21" s="3"/>
-      <c r="BM21" s="3"/>
-      <c r="BN21" s="3"/>
-      <c r="BO21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="4"/>
+      <c r="AH21" s="4"/>
+      <c r="AI21" s="4"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
+      <c r="AN21" s="4"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="AX21" s="4"/>
+      <c r="AY21" s="4"/>
+      <c r="AZ21" s="4"/>
+      <c r="BA21" s="4"/>
+      <c r="BB21" s="4"/>
+      <c r="BC21" s="4"/>
+      <c r="BD21" s="4"/>
+      <c r="BE21" s="4"/>
+      <c r="BF21" s="4"/>
+      <c r="BG21" s="4"/>
+      <c r="BH21" s="4"/>
+      <c r="BI21" s="4"/>
+      <c r="BJ21" s="4"/>
+      <c r="BK21" s="4"/>
+      <c r="BL21" s="4"/>
+      <c r="BM21" s="4"/>
+      <c r="BN21" s="4"/>
+      <c r="BO21" s="4"/>
     </row>
     <row r="22" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
-      <c r="AF22" s="3"/>
-      <c r="AG22" s="3"/>
-      <c r="AH22" s="3"/>
-      <c r="AI22" s="3"/>
-      <c r="AJ22" s="3"/>
-      <c r="AK22" s="3"/>
-      <c r="AL22" s="3"/>
-      <c r="AM22" s="3"/>
-      <c r="AN22" s="3"/>
-      <c r="AO22" s="3"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="3"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="3"/>
-      <c r="AT22" s="3"/>
-      <c r="AU22" s="3"/>
-      <c r="AV22" s="3"/>
-      <c r="AW22" s="3"/>
-      <c r="AX22" s="3"/>
-      <c r="AY22" s="3"/>
-      <c r="AZ22" s="3"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="3"/>
-      <c r="BC22" s="3"/>
-      <c r="BD22" s="3"/>
-      <c r="BE22" s="3"/>
-      <c r="BF22" s="3"/>
-      <c r="BG22" s="3"/>
-      <c r="BH22" s="3"/>
-      <c r="BI22" s="3"/>
-      <c r="BJ22" s="3"/>
-      <c r="BK22" s="3"/>
-      <c r="BL22" s="3"/>
-      <c r="BM22" s="3"/>
-      <c r="BN22" s="3"/>
-      <c r="BO22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="AX22" s="4"/>
+      <c r="AY22" s="4"/>
+      <c r="AZ22" s="4"/>
+      <c r="BA22" s="4"/>
+      <c r="BB22" s="4"/>
+      <c r="BC22" s="4"/>
+      <c r="BD22" s="4"/>
+      <c r="BE22" s="4"/>
+      <c r="BF22" s="4"/>
+      <c r="BG22" s="4"/>
+      <c r="BH22" s="4"/>
+      <c r="BI22" s="4"/>
+      <c r="BJ22" s="4"/>
+      <c r="BK22" s="4"/>
+      <c r="BL22" s="4"/>
+      <c r="BM22" s="4"/>
+      <c r="BN22" s="4"/>
+      <c r="BO22" s="4"/>
     </row>
     <row r="23" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
-      <c r="AF23" s="3"/>
-      <c r="AG23" s="3"/>
-      <c r="AH23" s="3"/>
-      <c r="AI23" s="3"/>
-      <c r="AJ23" s="3"/>
-      <c r="AK23" s="3"/>
-      <c r="AL23" s="3"/>
-      <c r="AM23" s="3"/>
-      <c r="AN23" s="3"/>
-      <c r="AO23" s="3"/>
-      <c r="AP23" s="3"/>
-      <c r="AQ23" s="3"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="3"/>
-      <c r="AT23" s="3"/>
-      <c r="AU23" s="3"/>
-      <c r="AV23" s="3"/>
-      <c r="AW23" s="3"/>
-      <c r="AX23" s="3"/>
-      <c r="AY23" s="3"/>
-      <c r="AZ23" s="3"/>
-      <c r="BA23" s="3"/>
-      <c r="BB23" s="3"/>
-      <c r="BC23" s="3"/>
-      <c r="BD23" s="3"/>
-      <c r="BE23" s="3"/>
-      <c r="BF23" s="3"/>
-      <c r="BG23" s="3"/>
-      <c r="BH23" s="3"/>
-      <c r="BI23" s="3"/>
-      <c r="BJ23" s="3"/>
-      <c r="BK23" s="3"/>
-      <c r="BL23" s="3"/>
-      <c r="BM23" s="3"/>
-      <c r="BN23" s="3"/>
-      <c r="BO23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="4"/>
+      <c r="AH23" s="4"/>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
+      <c r="AM23" s="4"/>
+      <c r="AN23" s="4"/>
+      <c r="AO23" s="4"/>
+      <c r="AP23" s="4"/>
+      <c r="AQ23" s="4"/>
+      <c r="AR23" s="4"/>
+      <c r="AS23" s="4"/>
+      <c r="AT23" s="4"/>
+      <c r="AU23" s="4"/>
+      <c r="AV23" s="4"/>
+      <c r="AW23" s="4"/>
+      <c r="AX23" s="4"/>
+      <c r="AY23" s="4"/>
+      <c r="AZ23" s="4"/>
+      <c r="BA23" s="4"/>
+      <c r="BB23" s="4"/>
+      <c r="BC23" s="4"/>
+      <c r="BD23" s="4"/>
+      <c r="BE23" s="4"/>
+      <c r="BF23" s="4"/>
+      <c r="BG23" s="4"/>
+      <c r="BH23" s="4"/>
+      <c r="BI23" s="4"/>
+      <c r="BJ23" s="4"/>
+      <c r="BK23" s="4"/>
+      <c r="BL23" s="4"/>
+      <c r="BM23" s="4"/>
+      <c r="BN23" s="4"/>
+      <c r="BO23" s="4"/>
     </row>
     <row r="24" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+      <c r="AT24" s="4"/>
+      <c r="AU24" s="4"/>
+      <c r="AV24" s="4"/>
+      <c r="AW24" s="4"/>
+      <c r="AX24" s="4"/>
+      <c r="AY24" s="4"/>
+      <c r="AZ24" s="4"/>
+      <c r="BA24" s="4"/>
+      <c r="BB24" s="4"/>
+      <c r="BC24" s="4"/>
+      <c r="BD24" s="4"/>
+      <c r="BE24" s="4"/>
+      <c r="BF24" s="4"/>
+      <c r="BG24" s="4"/>
+      <c r="BH24" s="4"/>
+      <c r="BI24" s="4"/>
+      <c r="BJ24" s="4"/>
+      <c r="BK24" s="4"/>
+      <c r="BL24" s="4"/>
+      <c r="BM24" s="4"/>
+      <c r="BN24" s="4"/>
+      <c r="BO24" s="4"/>
     </row>
     <row r="25" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
-      <c r="BC25" s="3"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="3"/>
-      <c r="BL25" s="3"/>
-      <c r="BM25" s="3"/>
-      <c r="BN25" s="3"/>
-      <c r="BO25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="4"/>
+      <c r="AH25" s="4"/>
+      <c r="AI25" s="4"/>
+      <c r="AJ25" s="4"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
+      <c r="AM25" s="4"/>
+      <c r="AN25" s="4"/>
+      <c r="AO25" s="4"/>
+      <c r="AP25" s="4"/>
+      <c r="AQ25" s="4"/>
+      <c r="AR25" s="4"/>
+      <c r="AS25" s="4"/>
+      <c r="AT25" s="4"/>
+      <c r="AU25" s="4"/>
+      <c r="AV25" s="4"/>
+      <c r="AW25" s="4"/>
+      <c r="AX25" s="4"/>
+      <c r="AY25" s="4"/>
+      <c r="AZ25" s="4"/>
+      <c r="BA25" s="4"/>
+      <c r="BB25" s="4"/>
+      <c r="BC25" s="4"/>
+      <c r="BD25" s="4"/>
+      <c r="BE25" s="4"/>
+      <c r="BF25" s="4"/>
+      <c r="BG25" s="4"/>
+      <c r="BH25" s="4"/>
+      <c r="BI25" s="4"/>
+      <c r="BJ25" s="4"/>
+      <c r="BK25" s="4"/>
+      <c r="BL25" s="4"/>
+      <c r="BM25" s="4"/>
+      <c r="BN25" s="4"/>
+      <c r="BO25" s="4"/>
     </row>
     <row r="26" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+      <c r="BA26" s="4"/>
+      <c r="BB26" s="4"/>
+      <c r="BC26" s="4"/>
+      <c r="BD26" s="4"/>
+      <c r="BE26" s="4"/>
+      <c r="BF26" s="4"/>
+      <c r="BG26" s="4"/>
+      <c r="BH26" s="4"/>
+      <c r="BI26" s="4"/>
+      <c r="BJ26" s="4"/>
+      <c r="BK26" s="4"/>
+      <c r="BL26" s="4"/>
+      <c r="BM26" s="4"/>
+      <c r="BN26" s="4"/>
+      <c r="BO26" s="4"/>
     </row>
     <row r="27" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="3"/>
-      <c r="BI27" s="3"/>
-      <c r="BJ27" s="3"/>
-      <c r="BK27" s="3"/>
-      <c r="BL27" s="3"/>
-      <c r="BM27" s="3"/>
-      <c r="BN27" s="3"/>
-      <c r="BO27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4"/>
+      <c r="AH27" s="4"/>
+      <c r="AI27" s="4"/>
+      <c r="AJ27" s="4"/>
+      <c r="AK27" s="4"/>
+      <c r="AL27" s="4"/>
+      <c r="AM27" s="4"/>
+      <c r="AN27" s="4"/>
+      <c r="AO27" s="4"/>
+      <c r="AP27" s="4"/>
+      <c r="AQ27" s="4"/>
+      <c r="AR27" s="4"/>
+      <c r="AS27" s="4"/>
+      <c r="AT27" s="4"/>
+      <c r="AU27" s="4"/>
+      <c r="AV27" s="4"/>
+      <c r="AW27" s="4"/>
+      <c r="AX27" s="4"/>
+      <c r="AY27" s="4"/>
+      <c r="AZ27" s="4"/>
+      <c r="BA27" s="4"/>
+      <c r="BB27" s="4"/>
+      <c r="BC27" s="4"/>
+      <c r="BD27" s="4"/>
+      <c r="BE27" s="4"/>
+      <c r="BF27" s="4"/>
+      <c r="BG27" s="4"/>
+      <c r="BH27" s="4"/>
+      <c r="BI27" s="4"/>
+      <c r="BJ27" s="4"/>
+      <c r="BK27" s="4"/>
+      <c r="BL27" s="4"/>
+      <c r="BM27" s="4"/>
+      <c r="BN27" s="4"/>
+      <c r="BO27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="GR1:HL3"/>
-    <mergeCell ref="GR4:HL6"/>
-    <mergeCell ref="GR7:HL9"/>
-    <mergeCell ref="GR10:HL12"/>
-    <mergeCell ref="GR13:HL15"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:J6"/>
-    <mergeCell ref="A7:J9"/>
-    <mergeCell ref="A10:J12"/>
-    <mergeCell ref="A13:J15"/>
-    <mergeCell ref="K1:AE3"/>
-    <mergeCell ref="K4:AE6"/>
-    <mergeCell ref="K7:AE9"/>
-    <mergeCell ref="K10:AE12"/>
-    <mergeCell ref="K13:AE15"/>
+    <mergeCell ref="FB10:FV12"/>
+    <mergeCell ref="FW10:GQ12"/>
+    <mergeCell ref="FB13:FV15"/>
+    <mergeCell ref="FW13:GQ15"/>
+    <mergeCell ref="A17:BO27"/>
+    <mergeCell ref="BA13:BU15"/>
+    <mergeCell ref="BV13:CP15"/>
+    <mergeCell ref="CQ13:DK15"/>
+    <mergeCell ref="DL13:EF15"/>
+    <mergeCell ref="AF13:AZ15"/>
+    <mergeCell ref="FB1:FV3"/>
+    <mergeCell ref="FW1:GQ3"/>
+    <mergeCell ref="FB4:FV6"/>
+    <mergeCell ref="FW4:GQ6"/>
+    <mergeCell ref="FB7:FV9"/>
+    <mergeCell ref="FW7:GQ9"/>
+    <mergeCell ref="EG4:FA6"/>
+    <mergeCell ref="EG1:FA3"/>
+    <mergeCell ref="EG7:FA9"/>
+    <mergeCell ref="EG10:FA12"/>
+    <mergeCell ref="EG13:FA15"/>
+    <mergeCell ref="BA7:BU9"/>
+    <mergeCell ref="BV7:CP9"/>
+    <mergeCell ref="CQ7:DK9"/>
+    <mergeCell ref="DL7:EF9"/>
+    <mergeCell ref="AF10:AZ12"/>
+    <mergeCell ref="BA10:BU12"/>
+    <mergeCell ref="BV10:CP12"/>
+    <mergeCell ref="CQ10:DK12"/>
+    <mergeCell ref="DL10:EF12"/>
+    <mergeCell ref="AF7:AZ9"/>
     <mergeCell ref="BA1:BU3"/>
     <mergeCell ref="BV1:CP3"/>
     <mergeCell ref="CQ1:DK3"/>
@@ -4996,37 +5022,21 @@
     <mergeCell ref="CQ4:DK6"/>
     <mergeCell ref="DL4:EF6"/>
     <mergeCell ref="AF1:AZ3"/>
-    <mergeCell ref="BA7:BU9"/>
-    <mergeCell ref="BV7:CP9"/>
-    <mergeCell ref="CQ7:DK9"/>
-    <mergeCell ref="DL7:EF9"/>
-    <mergeCell ref="AF10:AZ12"/>
-    <mergeCell ref="BA10:BU12"/>
-    <mergeCell ref="BV10:CP12"/>
-    <mergeCell ref="CQ10:DK12"/>
-    <mergeCell ref="DL10:EF12"/>
-    <mergeCell ref="AF7:AZ9"/>
-    <mergeCell ref="EG4:FA6"/>
-    <mergeCell ref="EG1:FA3"/>
-    <mergeCell ref="EG7:FA9"/>
-    <mergeCell ref="EG10:FA12"/>
-    <mergeCell ref="EG13:FA15"/>
-    <mergeCell ref="FB1:FV3"/>
-    <mergeCell ref="FW1:GQ3"/>
-    <mergeCell ref="FB4:FV6"/>
-    <mergeCell ref="FW4:GQ6"/>
-    <mergeCell ref="FB7:FV9"/>
-    <mergeCell ref="FW7:GQ9"/>
-    <mergeCell ref="FB10:FV12"/>
-    <mergeCell ref="FW10:GQ12"/>
-    <mergeCell ref="FB13:FV15"/>
-    <mergeCell ref="FW13:GQ15"/>
-    <mergeCell ref="A17:BO27"/>
-    <mergeCell ref="BA13:BU15"/>
-    <mergeCell ref="BV13:CP15"/>
-    <mergeCell ref="CQ13:DK15"/>
-    <mergeCell ref="DL13:EF15"/>
-    <mergeCell ref="AF13:AZ15"/>
+    <mergeCell ref="K1:AE3"/>
+    <mergeCell ref="K4:AE6"/>
+    <mergeCell ref="K7:AE9"/>
+    <mergeCell ref="K10:AE12"/>
+    <mergeCell ref="K13:AE15"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:J6"/>
+    <mergeCell ref="A7:J9"/>
+    <mergeCell ref="A10:J12"/>
+    <mergeCell ref="A13:J15"/>
+    <mergeCell ref="GR1:HL3"/>
+    <mergeCell ref="GR4:HL6"/>
+    <mergeCell ref="GR7:HL9"/>
+    <mergeCell ref="GR10:HL12"/>
+    <mergeCell ref="GR13:HL15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スパダリセブン(UnityData)/Assets/Resources/プランナー監獄エリア/Story/ストーリーCSVの記入ルール.xlsx
+++ b/スパダリセブン(UnityData)/Assets/Resources/プランナー監獄エリア/Story/ストーリーCSVの記入ルール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mimim\OneDrive\デスクトップ\SuperDarling7\スパダリセブン(UnityData)\Assets\Resources\プランナー監獄エリア\Story\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE6F177-E835-4DA2-9A53-4F5817D4023C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E66DED9-C17B-4C5C-A528-1F5EF266642C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F47F9A72-F10B-4779-A4EA-383775F0BB0E}"/>
   </bookViews>
@@ -253,101 +253,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・CSVファイルは文章ごとに作ってください。
-・ストーリーのCSVファイル名は「ストーリー〇-〇」のようにしてください。※〇には数字を入れてください
-・各項目の順番は入れ替えても問題ありませんが、項目名を間違えてしまうと読み込みが出来ません。
-・仮で作っているCSVファイルは3文目しかありませんが、必要に応じて増やしてください。
-・新たな項目を作りたい場合は岬へ連絡してください。</t>
-    <rPh sb="9" eb="11">
-      <t>ブンショウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="89" eb="91">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="98" eb="101">
-      <t>コウモクメイ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>マチガ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="112" eb="113">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="115" eb="117">
-      <t>デキ</t>
-    </rPh>
-    <rPh sb="123" eb="124">
-      <t>カリ</t>
-    </rPh>
-    <rPh sb="125" eb="126">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="153" eb="154">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="173" eb="174">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="180" eb="181">
-      <t>ミサキ</t>
-    </rPh>
-    <rPh sb="182" eb="184">
-      <t>レンラク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BGM</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,6 +276,120 @@
     </rPh>
     <rPh sb="28" eb="29">
       <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・CSVファイルは文章ごとに作ってください。
+・ストーリーのCSVファイル名は「ストーリー〇-〇」のようにしてください。※〇には数字を入れてください
+・各項目の順番は入れ替えても問題ありませんが、項目名を間違えてしまうと読み込みが出来ません。
+・仮で作っているCSVファイルは3文目しかありませんが、必要に応じて増やしてください。
+・新たな項目を作りたい場合は岬へ連絡してください。
+・全角で36文字目から次の行に表示される</t>
+    <rPh sb="9" eb="11">
+      <t>ブンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="98" eb="101">
+      <t>コウモクメイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>デキ</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="180" eb="181">
+      <t>ミサキ</t>
+    </rPh>
+    <rPh sb="182" eb="184">
+      <t>レンラク</t>
+    </rPh>
+    <rPh sb="193" eb="195">
+      <t>ゼンカク</t>
+    </rPh>
+    <rPh sb="198" eb="200">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="203" eb="204">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="207" eb="209">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -426,13 +445,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -770,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFBB206-688C-4217-9AF1-F06A4641E0D1}">
   <dimension ref="A1:HL27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DH1" workbookViewId="0">
-      <selection activeCell="HI20" sqref="HI20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:BO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -999,7 +1018,7 @@
       <c r="GP1" s="1"/>
       <c r="GQ1" s="1"/>
       <c r="GR1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="GS1" s="1"/>
       <c r="GT1" s="1"/>
@@ -1479,7 +1498,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="L4" s="1"/>
@@ -1502,30 +1521,30 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
-      <c r="AF4" s="2" t="s">
+      <c r="AF4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2" t="s">
+      <c r="AG4" s="4"/>
+      <c r="AH4" s="4"/>
+      <c r="AI4" s="4"/>
+      <c r="AJ4" s="4"/>
+      <c r="AK4" s="4"/>
+      <c r="AL4" s="4"/>
+      <c r="AM4" s="4"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="BB4" s="1"/>
@@ -1548,30 +1567,30 @@
       <c r="BS4" s="1"/>
       <c r="BT4" s="1"/>
       <c r="BU4" s="1"/>
-      <c r="BV4" s="2" t="s">
+      <c r="BV4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CH4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="2"/>
-      <c r="CL4" s="2"/>
-      <c r="CM4" s="2"/>
-      <c r="CN4" s="2"/>
-      <c r="CO4" s="2"/>
-      <c r="CP4" s="2"/>
-      <c r="CQ4" s="2" t="s">
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="4"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
+      <c r="CB4" s="4"/>
+      <c r="CC4" s="4"/>
+      <c r="CD4" s="4"/>
+      <c r="CE4" s="4"/>
+      <c r="CF4" s="4"/>
+      <c r="CG4" s="4"/>
+      <c r="CH4" s="4"/>
+      <c r="CI4" s="4"/>
+      <c r="CJ4" s="4"/>
+      <c r="CK4" s="4"/>
+      <c r="CL4" s="4"/>
+      <c r="CM4" s="4"/>
+      <c r="CN4" s="4"/>
+      <c r="CO4" s="4"/>
+      <c r="CP4" s="4"/>
+      <c r="CQ4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="CR4" s="1"/>
@@ -1594,121 +1613,121 @@
       <c r="DI4" s="1"/>
       <c r="DJ4" s="1"/>
       <c r="DK4" s="1"/>
-      <c r="DL4" s="2" t="s">
+      <c r="DL4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="DM4" s="2"/>
-      <c r="DN4" s="2"/>
-      <c r="DO4" s="2"/>
-      <c r="DP4" s="2"/>
-      <c r="DQ4" s="2"/>
-      <c r="DR4" s="2"/>
-      <c r="DS4" s="2"/>
-      <c r="DT4" s="2"/>
-      <c r="DU4" s="2"/>
-      <c r="DV4" s="2"/>
-      <c r="DW4" s="2"/>
-      <c r="DX4" s="2"/>
-      <c r="DY4" s="2"/>
-      <c r="DZ4" s="2"/>
-      <c r="EA4" s="2"/>
-      <c r="EB4" s="2"/>
-      <c r="EC4" s="2"/>
-      <c r="ED4" s="2"/>
-      <c r="EE4" s="2"/>
-      <c r="EF4" s="2"/>
-      <c r="EG4" s="2" t="s">
+      <c r="DM4" s="4"/>
+      <c r="DN4" s="4"/>
+      <c r="DO4" s="4"/>
+      <c r="DP4" s="4"/>
+      <c r="DQ4" s="4"/>
+      <c r="DR4" s="4"/>
+      <c r="DS4" s="4"/>
+      <c r="DT4" s="4"/>
+      <c r="DU4" s="4"/>
+      <c r="DV4" s="4"/>
+      <c r="DW4" s="4"/>
+      <c r="DX4" s="4"/>
+      <c r="DY4" s="4"/>
+      <c r="DZ4" s="4"/>
+      <c r="EA4" s="4"/>
+      <c r="EB4" s="4"/>
+      <c r="EC4" s="4"/>
+      <c r="ED4" s="4"/>
+      <c r="EE4" s="4"/>
+      <c r="EF4" s="4"/>
+      <c r="EG4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="EH4" s="2"/>
-      <c r="EI4" s="2"/>
-      <c r="EJ4" s="2"/>
-      <c r="EK4" s="2"/>
-      <c r="EL4" s="2"/>
-      <c r="EM4" s="2"/>
-      <c r="EN4" s="2"/>
-      <c r="EO4" s="2"/>
-      <c r="EP4" s="2"/>
-      <c r="EQ4" s="2"/>
-      <c r="ER4" s="2"/>
-      <c r="ES4" s="2"/>
-      <c r="ET4" s="2"/>
-      <c r="EU4" s="2"/>
-      <c r="EV4" s="2"/>
-      <c r="EW4" s="2"/>
-      <c r="EX4" s="2"/>
-      <c r="EY4" s="2"/>
-      <c r="EZ4" s="2"/>
-      <c r="FA4" s="2"/>
-      <c r="FB4" s="2" t="s">
+      <c r="EH4" s="4"/>
+      <c r="EI4" s="4"/>
+      <c r="EJ4" s="4"/>
+      <c r="EK4" s="4"/>
+      <c r="EL4" s="4"/>
+      <c r="EM4" s="4"/>
+      <c r="EN4" s="4"/>
+      <c r="EO4" s="4"/>
+      <c r="EP4" s="4"/>
+      <c r="EQ4" s="4"/>
+      <c r="ER4" s="4"/>
+      <c r="ES4" s="4"/>
+      <c r="ET4" s="4"/>
+      <c r="EU4" s="4"/>
+      <c r="EV4" s="4"/>
+      <c r="EW4" s="4"/>
+      <c r="EX4" s="4"/>
+      <c r="EY4" s="4"/>
+      <c r="EZ4" s="4"/>
+      <c r="FA4" s="4"/>
+      <c r="FB4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="FC4" s="2"/>
-      <c r="FD4" s="2"/>
-      <c r="FE4" s="2"/>
-      <c r="FF4" s="2"/>
-      <c r="FG4" s="2"/>
-      <c r="FH4" s="2"/>
-      <c r="FI4" s="2"/>
-      <c r="FJ4" s="2"/>
-      <c r="FK4" s="2"/>
-      <c r="FL4" s="2"/>
-      <c r="FM4" s="2"/>
-      <c r="FN4" s="2"/>
-      <c r="FO4" s="2"/>
-      <c r="FP4" s="2"/>
-      <c r="FQ4" s="2"/>
-      <c r="FR4" s="2"/>
-      <c r="FS4" s="2"/>
-      <c r="FT4" s="2"/>
-      <c r="FU4" s="2"/>
-      <c r="FV4" s="2"/>
-      <c r="FW4" s="2" t="s">
+      <c r="FC4" s="4"/>
+      <c r="FD4" s="4"/>
+      <c r="FE4" s="4"/>
+      <c r="FF4" s="4"/>
+      <c r="FG4" s="4"/>
+      <c r="FH4" s="4"/>
+      <c r="FI4" s="4"/>
+      <c r="FJ4" s="4"/>
+      <c r="FK4" s="4"/>
+      <c r="FL4" s="4"/>
+      <c r="FM4" s="4"/>
+      <c r="FN4" s="4"/>
+      <c r="FO4" s="4"/>
+      <c r="FP4" s="4"/>
+      <c r="FQ4" s="4"/>
+      <c r="FR4" s="4"/>
+      <c r="FS4" s="4"/>
+      <c r="FT4" s="4"/>
+      <c r="FU4" s="4"/>
+      <c r="FV4" s="4"/>
+      <c r="FW4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="FX4" s="2"/>
-      <c r="FY4" s="2"/>
-      <c r="FZ4" s="2"/>
-      <c r="GA4" s="2"/>
-      <c r="GB4" s="2"/>
-      <c r="GC4" s="2"/>
-      <c r="GD4" s="2"/>
-      <c r="GE4" s="2"/>
-      <c r="GF4" s="2"/>
-      <c r="GG4" s="2"/>
-      <c r="GH4" s="2"/>
-      <c r="GI4" s="2"/>
-      <c r="GJ4" s="2"/>
-      <c r="GK4" s="2"/>
-      <c r="GL4" s="2"/>
-      <c r="GM4" s="2"/>
-      <c r="GN4" s="2"/>
-      <c r="GO4" s="2"/>
-      <c r="GP4" s="2"/>
-      <c r="GQ4" s="2"/>
-      <c r="GR4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="GS4" s="2"/>
-      <c r="GT4" s="2"/>
-      <c r="GU4" s="2"/>
-      <c r="GV4" s="2"/>
-      <c r="GW4" s="2"/>
-      <c r="GX4" s="2"/>
-      <c r="GY4" s="2"/>
-      <c r="GZ4" s="2"/>
-      <c r="HA4" s="2"/>
-      <c r="HB4" s="2"/>
-      <c r="HC4" s="2"/>
-      <c r="HD4" s="2"/>
-      <c r="HE4" s="2"/>
-      <c r="HF4" s="2"/>
-      <c r="HG4" s="2"/>
-      <c r="HH4" s="2"/>
-      <c r="HI4" s="2"/>
-      <c r="HJ4" s="2"/>
-      <c r="HK4" s="2"/>
-      <c r="HL4" s="2"/>
+      <c r="FX4" s="4"/>
+      <c r="FY4" s="4"/>
+      <c r="FZ4" s="4"/>
+      <c r="GA4" s="4"/>
+      <c r="GB4" s="4"/>
+      <c r="GC4" s="4"/>
+      <c r="GD4" s="4"/>
+      <c r="GE4" s="4"/>
+      <c r="GF4" s="4"/>
+      <c r="GG4" s="4"/>
+      <c r="GH4" s="4"/>
+      <c r="GI4" s="4"/>
+      <c r="GJ4" s="4"/>
+      <c r="GK4" s="4"/>
+      <c r="GL4" s="4"/>
+      <c r="GM4" s="4"/>
+      <c r="GN4" s="4"/>
+      <c r="GO4" s="4"/>
+      <c r="GP4" s="4"/>
+      <c r="GQ4" s="4"/>
+      <c r="GR4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="GS4" s="4"/>
+      <c r="GT4" s="4"/>
+      <c r="GU4" s="4"/>
+      <c r="GV4" s="4"/>
+      <c r="GW4" s="4"/>
+      <c r="GX4" s="4"/>
+      <c r="GY4" s="4"/>
+      <c r="GZ4" s="4"/>
+      <c r="HA4" s="4"/>
+      <c r="HB4" s="4"/>
+      <c r="HC4" s="4"/>
+      <c r="HD4" s="4"/>
+      <c r="HE4" s="4"/>
+      <c r="HF4" s="4"/>
+      <c r="HG4" s="4"/>
+      <c r="HH4" s="4"/>
+      <c r="HI4" s="4"/>
+      <c r="HJ4" s="4"/>
+      <c r="HK4" s="4"/>
+      <c r="HL4" s="4"/>
     </row>
     <row r="5" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
@@ -1742,27 +1761,27 @@
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="2"/>
-      <c r="AG5" s="2"/>
-      <c r="AH5" s="2"/>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-      <c r="AV5" s="2"/>
-      <c r="AW5" s="2"/>
-      <c r="AX5" s="2"/>
-      <c r="AY5" s="2"/>
-      <c r="AZ5" s="2"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="4"/>
+      <c r="AJ5" s="4"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
       <c r="BA5" s="1"/>
       <c r="BB5" s="1"/>
       <c r="BC5" s="1"/>
@@ -1784,27 +1803,27 @@
       <c r="BS5" s="1"/>
       <c r="BT5" s="1"/>
       <c r="BU5" s="1"/>
-      <c r="BV5" s="2"/>
-      <c r="BW5" s="2"/>
-      <c r="BX5" s="2"/>
-      <c r="BY5" s="2"/>
-      <c r="BZ5" s="2"/>
-      <c r="CA5" s="2"/>
-      <c r="CB5" s="2"/>
-      <c r="CC5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
-      <c r="CH5" s="2"/>
-      <c r="CI5" s="2"/>
-      <c r="CJ5" s="2"/>
-      <c r="CK5" s="2"/>
-      <c r="CL5" s="2"/>
-      <c r="CM5" s="2"/>
-      <c r="CN5" s="2"/>
-      <c r="CO5" s="2"/>
-      <c r="CP5" s="2"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
+      <c r="CM5" s="4"/>
+      <c r="CN5" s="4"/>
+      <c r="CO5" s="4"/>
+      <c r="CP5" s="4"/>
       <c r="CQ5" s="1"/>
       <c r="CR5" s="1"/>
       <c r="CS5" s="1"/>
@@ -1826,111 +1845,111 @@
       <c r="DI5" s="1"/>
       <c r="DJ5" s="1"/>
       <c r="DK5" s="1"/>
-      <c r="DL5" s="2"/>
-      <c r="DM5" s="2"/>
-      <c r="DN5" s="2"/>
-      <c r="DO5" s="2"/>
-      <c r="DP5" s="2"/>
-      <c r="DQ5" s="2"/>
-      <c r="DR5" s="2"/>
-      <c r="DS5" s="2"/>
-      <c r="DT5" s="2"/>
-      <c r="DU5" s="2"/>
-      <c r="DV5" s="2"/>
-      <c r="DW5" s="2"/>
-      <c r="DX5" s="2"/>
-      <c r="DY5" s="2"/>
-      <c r="DZ5" s="2"/>
-      <c r="EA5" s="2"/>
-      <c r="EB5" s="2"/>
-      <c r="EC5" s="2"/>
-      <c r="ED5" s="2"/>
-      <c r="EE5" s="2"/>
-      <c r="EF5" s="2"/>
-      <c r="EG5" s="2"/>
-      <c r="EH5" s="2"/>
-      <c r="EI5" s="2"/>
-      <c r="EJ5" s="2"/>
-      <c r="EK5" s="2"/>
-      <c r="EL5" s="2"/>
-      <c r="EM5" s="2"/>
-      <c r="EN5" s="2"/>
-      <c r="EO5" s="2"/>
-      <c r="EP5" s="2"/>
-      <c r="EQ5" s="2"/>
-      <c r="ER5" s="2"/>
-      <c r="ES5" s="2"/>
-      <c r="ET5" s="2"/>
-      <c r="EU5" s="2"/>
-      <c r="EV5" s="2"/>
-      <c r="EW5" s="2"/>
-      <c r="EX5" s="2"/>
-      <c r="EY5" s="2"/>
-      <c r="EZ5" s="2"/>
-      <c r="FA5" s="2"/>
-      <c r="FB5" s="2"/>
-      <c r="FC5" s="2"/>
-      <c r="FD5" s="2"/>
-      <c r="FE5" s="2"/>
-      <c r="FF5" s="2"/>
-      <c r="FG5" s="2"/>
-      <c r="FH5" s="2"/>
-      <c r="FI5" s="2"/>
-      <c r="FJ5" s="2"/>
-      <c r="FK5" s="2"/>
-      <c r="FL5" s="2"/>
-      <c r="FM5" s="2"/>
-      <c r="FN5" s="2"/>
-      <c r="FO5" s="2"/>
-      <c r="FP5" s="2"/>
-      <c r="FQ5" s="2"/>
-      <c r="FR5" s="2"/>
-      <c r="FS5" s="2"/>
-      <c r="FT5" s="2"/>
-      <c r="FU5" s="2"/>
-      <c r="FV5" s="2"/>
-      <c r="FW5" s="2"/>
-      <c r="FX5" s="2"/>
-      <c r="FY5" s="2"/>
-      <c r="FZ5" s="2"/>
-      <c r="GA5" s="2"/>
-      <c r="GB5" s="2"/>
-      <c r="GC5" s="2"/>
-      <c r="GD5" s="2"/>
-      <c r="GE5" s="2"/>
-      <c r="GF5" s="2"/>
-      <c r="GG5" s="2"/>
-      <c r="GH5" s="2"/>
-      <c r="GI5" s="2"/>
-      <c r="GJ5" s="2"/>
-      <c r="GK5" s="2"/>
-      <c r="GL5" s="2"/>
-      <c r="GM5" s="2"/>
-      <c r="GN5" s="2"/>
-      <c r="GO5" s="2"/>
-      <c r="GP5" s="2"/>
-      <c r="GQ5" s="2"/>
-      <c r="GR5" s="2"/>
-      <c r="GS5" s="2"/>
-      <c r="GT5" s="2"/>
-      <c r="GU5" s="2"/>
-      <c r="GV5" s="2"/>
-      <c r="GW5" s="2"/>
-      <c r="GX5" s="2"/>
-      <c r="GY5" s="2"/>
-      <c r="GZ5" s="2"/>
-      <c r="HA5" s="2"/>
-      <c r="HB5" s="2"/>
-      <c r="HC5" s="2"/>
-      <c r="HD5" s="2"/>
-      <c r="HE5" s="2"/>
-      <c r="HF5" s="2"/>
-      <c r="HG5" s="2"/>
-      <c r="HH5" s="2"/>
-      <c r="HI5" s="2"/>
-      <c r="HJ5" s="2"/>
-      <c r="HK5" s="2"/>
-      <c r="HL5" s="2"/>
+      <c r="DL5" s="4"/>
+      <c r="DM5" s="4"/>
+      <c r="DN5" s="4"/>
+      <c r="DO5" s="4"/>
+      <c r="DP5" s="4"/>
+      <c r="DQ5" s="4"/>
+      <c r="DR5" s="4"/>
+      <c r="DS5" s="4"/>
+      <c r="DT5" s="4"/>
+      <c r="DU5" s="4"/>
+      <c r="DV5" s="4"/>
+      <c r="DW5" s="4"/>
+      <c r="DX5" s="4"/>
+      <c r="DY5" s="4"/>
+      <c r="DZ5" s="4"/>
+      <c r="EA5" s="4"/>
+      <c r="EB5" s="4"/>
+      <c r="EC5" s="4"/>
+      <c r="ED5" s="4"/>
+      <c r="EE5" s="4"/>
+      <c r="EF5" s="4"/>
+      <c r="EG5" s="4"/>
+      <c r="EH5" s="4"/>
+      <c r="EI5" s="4"/>
+      <c r="EJ5" s="4"/>
+      <c r="EK5" s="4"/>
+      <c r="EL5" s="4"/>
+      <c r="EM5" s="4"/>
+      <c r="EN5" s="4"/>
+      <c r="EO5" s="4"/>
+      <c r="EP5" s="4"/>
+      <c r="EQ5" s="4"/>
+      <c r="ER5" s="4"/>
+      <c r="ES5" s="4"/>
+      <c r="ET5" s="4"/>
+      <c r="EU5" s="4"/>
+      <c r="EV5" s="4"/>
+      <c r="EW5" s="4"/>
+      <c r="EX5" s="4"/>
+      <c r="EY5" s="4"/>
+      <c r="EZ5" s="4"/>
+      <c r="FA5" s="4"/>
+      <c r="FB5" s="4"/>
+      <c r="FC5" s="4"/>
+      <c r="FD5" s="4"/>
+      <c r="FE5" s="4"/>
+      <c r="FF5" s="4"/>
+      <c r="FG5" s="4"/>
+      <c r="FH5" s="4"/>
+      <c r="FI5" s="4"/>
+      <c r="FJ5" s="4"/>
+      <c r="FK5" s="4"/>
+      <c r="FL5" s="4"/>
+      <c r="FM5" s="4"/>
+      <c r="FN5" s="4"/>
+      <c r="FO5" s="4"/>
+      <c r="FP5" s="4"/>
+      <c r="FQ5" s="4"/>
+      <c r="FR5" s="4"/>
+      <c r="FS5" s="4"/>
+      <c r="FT5" s="4"/>
+      <c r="FU5" s="4"/>
+      <c r="FV5" s="4"/>
+      <c r="FW5" s="4"/>
+      <c r="FX5" s="4"/>
+      <c r="FY5" s="4"/>
+      <c r="FZ5" s="4"/>
+      <c r="GA5" s="4"/>
+      <c r="GB5" s="4"/>
+      <c r="GC5" s="4"/>
+      <c r="GD5" s="4"/>
+      <c r="GE5" s="4"/>
+      <c r="GF5" s="4"/>
+      <c r="GG5" s="4"/>
+      <c r="GH5" s="4"/>
+      <c r="GI5" s="4"/>
+      <c r="GJ5" s="4"/>
+      <c r="GK5" s="4"/>
+      <c r="GL5" s="4"/>
+      <c r="GM5" s="4"/>
+      <c r="GN5" s="4"/>
+      <c r="GO5" s="4"/>
+      <c r="GP5" s="4"/>
+      <c r="GQ5" s="4"/>
+      <c r="GR5" s="4"/>
+      <c r="GS5" s="4"/>
+      <c r="GT5" s="4"/>
+      <c r="GU5" s="4"/>
+      <c r="GV5" s="4"/>
+      <c r="GW5" s="4"/>
+      <c r="GX5" s="4"/>
+      <c r="GY5" s="4"/>
+      <c r="GZ5" s="4"/>
+      <c r="HA5" s="4"/>
+      <c r="HB5" s="4"/>
+      <c r="HC5" s="4"/>
+      <c r="HD5" s="4"/>
+      <c r="HE5" s="4"/>
+      <c r="HF5" s="4"/>
+      <c r="HG5" s="4"/>
+      <c r="HH5" s="4"/>
+      <c r="HI5" s="4"/>
+      <c r="HJ5" s="4"/>
+      <c r="HK5" s="4"/>
+      <c r="HL5" s="4"/>
     </row>
     <row r="6" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
@@ -1964,27 +1983,27 @@
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
-      <c r="AF6" s="2"/>
-      <c r="AG6" s="2"/>
-      <c r="AH6" s="2"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
-      <c r="AL6" s="2"/>
-      <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
-      <c r="AV6" s="2"/>
-      <c r="AW6" s="2"/>
-      <c r="AX6" s="2"/>
-      <c r="AY6" s="2"/>
-      <c r="AZ6" s="2"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="4"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="AX6" s="4"/>
+      <c r="AY6" s="4"/>
+      <c r="AZ6" s="4"/>
       <c r="BA6" s="1"/>
       <c r="BB6" s="1"/>
       <c r="BC6" s="1"/>
@@ -2006,27 +2025,27 @@
       <c r="BS6" s="1"/>
       <c r="BT6" s="1"/>
       <c r="BU6" s="1"/>
-      <c r="BV6" s="2"/>
-      <c r="BW6" s="2"/>
-      <c r="BX6" s="2"/>
-      <c r="BY6" s="2"/>
-      <c r="BZ6" s="2"/>
-      <c r="CA6" s="2"/>
-      <c r="CB6" s="2"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="2"/>
-      <c r="CE6" s="2"/>
-      <c r="CF6" s="2"/>
-      <c r="CG6" s="2"/>
-      <c r="CH6" s="2"/>
-      <c r="CI6" s="2"/>
-      <c r="CJ6" s="2"/>
-      <c r="CK6" s="2"/>
-      <c r="CL6" s="2"/>
-      <c r="CM6" s="2"/>
-      <c r="CN6" s="2"/>
-      <c r="CO6" s="2"/>
-      <c r="CP6" s="2"/>
+      <c r="BV6" s="4"/>
+      <c r="BW6" s="4"/>
+      <c r="BX6" s="4"/>
+      <c r="BY6" s="4"/>
+      <c r="BZ6" s="4"/>
+      <c r="CA6" s="4"/>
+      <c r="CB6" s="4"/>
+      <c r="CC6" s="4"/>
+      <c r="CD6" s="4"/>
+      <c r="CE6" s="4"/>
+      <c r="CF6" s="4"/>
+      <c r="CG6" s="4"/>
+      <c r="CH6" s="4"/>
+      <c r="CI6" s="4"/>
+      <c r="CJ6" s="4"/>
+      <c r="CK6" s="4"/>
+      <c r="CL6" s="4"/>
+      <c r="CM6" s="4"/>
+      <c r="CN6" s="4"/>
+      <c r="CO6" s="4"/>
+      <c r="CP6" s="4"/>
       <c r="CQ6" s="1"/>
       <c r="CR6" s="1"/>
       <c r="CS6" s="1"/>
@@ -2048,111 +2067,111 @@
       <c r="DI6" s="1"/>
       <c r="DJ6" s="1"/>
       <c r="DK6" s="1"/>
-      <c r="DL6" s="2"/>
-      <c r="DM6" s="2"/>
-      <c r="DN6" s="2"/>
-      <c r="DO6" s="2"/>
-      <c r="DP6" s="2"/>
-      <c r="DQ6" s="2"/>
-      <c r="DR6" s="2"/>
-      <c r="DS6" s="2"/>
-      <c r="DT6" s="2"/>
-      <c r="DU6" s="2"/>
-      <c r="DV6" s="2"/>
-      <c r="DW6" s="2"/>
-      <c r="DX6" s="2"/>
-      <c r="DY6" s="2"/>
-      <c r="DZ6" s="2"/>
-      <c r="EA6" s="2"/>
-      <c r="EB6" s="2"/>
-      <c r="EC6" s="2"/>
-      <c r="ED6" s="2"/>
-      <c r="EE6" s="2"/>
-      <c r="EF6" s="2"/>
-      <c r="EG6" s="2"/>
-      <c r="EH6" s="2"/>
-      <c r="EI6" s="2"/>
-      <c r="EJ6" s="2"/>
-      <c r="EK6" s="2"/>
-      <c r="EL6" s="2"/>
-      <c r="EM6" s="2"/>
-      <c r="EN6" s="2"/>
-      <c r="EO6" s="2"/>
-      <c r="EP6" s="2"/>
-      <c r="EQ6" s="2"/>
-      <c r="ER6" s="2"/>
-      <c r="ES6" s="2"/>
-      <c r="ET6" s="2"/>
-      <c r="EU6" s="2"/>
-      <c r="EV6" s="2"/>
-      <c r="EW6" s="2"/>
-      <c r="EX6" s="2"/>
-      <c r="EY6" s="2"/>
-      <c r="EZ6" s="2"/>
-      <c r="FA6" s="2"/>
-      <c r="FB6" s="2"/>
-      <c r="FC6" s="2"/>
-      <c r="FD6" s="2"/>
-      <c r="FE6" s="2"/>
-      <c r="FF6" s="2"/>
-      <c r="FG6" s="2"/>
-      <c r="FH6" s="2"/>
-      <c r="FI6" s="2"/>
-      <c r="FJ6" s="2"/>
-      <c r="FK6" s="2"/>
-      <c r="FL6" s="2"/>
-      <c r="FM6" s="2"/>
-      <c r="FN6" s="2"/>
-      <c r="FO6" s="2"/>
-      <c r="FP6" s="2"/>
-      <c r="FQ6" s="2"/>
-      <c r="FR6" s="2"/>
-      <c r="FS6" s="2"/>
-      <c r="FT6" s="2"/>
-      <c r="FU6" s="2"/>
-      <c r="FV6" s="2"/>
-      <c r="FW6" s="2"/>
-      <c r="FX6" s="2"/>
-      <c r="FY6" s="2"/>
-      <c r="FZ6" s="2"/>
-      <c r="GA6" s="2"/>
-      <c r="GB6" s="2"/>
-      <c r="GC6" s="2"/>
-      <c r="GD6" s="2"/>
-      <c r="GE6" s="2"/>
-      <c r="GF6" s="2"/>
-      <c r="GG6" s="2"/>
-      <c r="GH6" s="2"/>
-      <c r="GI6" s="2"/>
-      <c r="GJ6" s="2"/>
-      <c r="GK6" s="2"/>
-      <c r="GL6" s="2"/>
-      <c r="GM6" s="2"/>
-      <c r="GN6" s="2"/>
-      <c r="GO6" s="2"/>
-      <c r="GP6" s="2"/>
-      <c r="GQ6" s="2"/>
-      <c r="GR6" s="2"/>
-      <c r="GS6" s="2"/>
-      <c r="GT6" s="2"/>
-      <c r="GU6" s="2"/>
-      <c r="GV6" s="2"/>
-      <c r="GW6" s="2"/>
-      <c r="GX6" s="2"/>
-      <c r="GY6" s="2"/>
-      <c r="GZ6" s="2"/>
-      <c r="HA6" s="2"/>
-      <c r="HB6" s="2"/>
-      <c r="HC6" s="2"/>
-      <c r="HD6" s="2"/>
-      <c r="HE6" s="2"/>
-      <c r="HF6" s="2"/>
-      <c r="HG6" s="2"/>
-      <c r="HH6" s="2"/>
-      <c r="HI6" s="2"/>
-      <c r="HJ6" s="2"/>
-      <c r="HK6" s="2"/>
-      <c r="HL6" s="2"/>
+      <c r="DL6" s="4"/>
+      <c r="DM6" s="4"/>
+      <c r="DN6" s="4"/>
+      <c r="DO6" s="4"/>
+      <c r="DP6" s="4"/>
+      <c r="DQ6" s="4"/>
+      <c r="DR6" s="4"/>
+      <c r="DS6" s="4"/>
+      <c r="DT6" s="4"/>
+      <c r="DU6" s="4"/>
+      <c r="DV6" s="4"/>
+      <c r="DW6" s="4"/>
+      <c r="DX6" s="4"/>
+      <c r="DY6" s="4"/>
+      <c r="DZ6" s="4"/>
+      <c r="EA6" s="4"/>
+      <c r="EB6" s="4"/>
+      <c r="EC6" s="4"/>
+      <c r="ED6" s="4"/>
+      <c r="EE6" s="4"/>
+      <c r="EF6" s="4"/>
+      <c r="EG6" s="4"/>
+      <c r="EH6" s="4"/>
+      <c r="EI6" s="4"/>
+      <c r="EJ6" s="4"/>
+      <c r="EK6" s="4"/>
+      <c r="EL6" s="4"/>
+      <c r="EM6" s="4"/>
+      <c r="EN6" s="4"/>
+      <c r="EO6" s="4"/>
+      <c r="EP6" s="4"/>
+      <c r="EQ6" s="4"/>
+      <c r="ER6" s="4"/>
+      <c r="ES6" s="4"/>
+      <c r="ET6" s="4"/>
+      <c r="EU6" s="4"/>
+      <c r="EV6" s="4"/>
+      <c r="EW6" s="4"/>
+      <c r="EX6" s="4"/>
+      <c r="EY6" s="4"/>
+      <c r="EZ6" s="4"/>
+      <c r="FA6" s="4"/>
+      <c r="FB6" s="4"/>
+      <c r="FC6" s="4"/>
+      <c r="FD6" s="4"/>
+      <c r="FE6" s="4"/>
+      <c r="FF6" s="4"/>
+      <c r="FG6" s="4"/>
+      <c r="FH6" s="4"/>
+      <c r="FI6" s="4"/>
+      <c r="FJ6" s="4"/>
+      <c r="FK6" s="4"/>
+      <c r="FL6" s="4"/>
+      <c r="FM6" s="4"/>
+      <c r="FN6" s="4"/>
+      <c r="FO6" s="4"/>
+      <c r="FP6" s="4"/>
+      <c r="FQ6" s="4"/>
+      <c r="FR6" s="4"/>
+      <c r="FS6" s="4"/>
+      <c r="FT6" s="4"/>
+      <c r="FU6" s="4"/>
+      <c r="FV6" s="4"/>
+      <c r="FW6" s="4"/>
+      <c r="FX6" s="4"/>
+      <c r="FY6" s="4"/>
+      <c r="FZ6" s="4"/>
+      <c r="GA6" s="4"/>
+      <c r="GB6" s="4"/>
+      <c r="GC6" s="4"/>
+      <c r="GD6" s="4"/>
+      <c r="GE6" s="4"/>
+      <c r="GF6" s="4"/>
+      <c r="GG6" s="4"/>
+      <c r="GH6" s="4"/>
+      <c r="GI6" s="4"/>
+      <c r="GJ6" s="4"/>
+      <c r="GK6" s="4"/>
+      <c r="GL6" s="4"/>
+      <c r="GM6" s="4"/>
+      <c r="GN6" s="4"/>
+      <c r="GO6" s="4"/>
+      <c r="GP6" s="4"/>
+      <c r="GQ6" s="4"/>
+      <c r="GR6" s="4"/>
+      <c r="GS6" s="4"/>
+      <c r="GT6" s="4"/>
+      <c r="GU6" s="4"/>
+      <c r="GV6" s="4"/>
+      <c r="GW6" s="4"/>
+      <c r="GX6" s="4"/>
+      <c r="GY6" s="4"/>
+      <c r="GZ6" s="4"/>
+      <c r="HA6" s="4"/>
+      <c r="HB6" s="4"/>
+      <c r="HC6" s="4"/>
+      <c r="HD6" s="4"/>
+      <c r="HE6" s="4"/>
+      <c r="HF6" s="4"/>
+      <c r="HG6" s="4"/>
+      <c r="HH6" s="4"/>
+      <c r="HI6" s="4"/>
+      <c r="HJ6" s="4"/>
+      <c r="HK6" s="4"/>
+      <c r="HL6" s="4"/>
     </row>
     <row r="7" spans="1:220" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -4219,768 +4238,814 @@
       <c r="HL15" s="1"/>
     </row>
     <row r="17" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="AX17" s="4"/>
-      <c r="AY17" s="4"/>
-      <c r="AZ17" s="4"/>
-      <c r="BA17" s="4"/>
-      <c r="BB17" s="4"/>
-      <c r="BC17" s="4"/>
-      <c r="BD17" s="4"/>
-      <c r="BE17" s="4"/>
-      <c r="BF17" s="4"/>
-      <c r="BG17" s="4"/>
-      <c r="BH17" s="4"/>
-      <c r="BI17" s="4"/>
-      <c r="BJ17" s="4"/>
-      <c r="BK17" s="4"/>
-      <c r="BL17" s="4"/>
-      <c r="BM17" s="4"/>
-      <c r="BN17" s="4"/>
-      <c r="BO17" s="4"/>
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3"/>
+      <c r="AG17" s="3"/>
+      <c r="AH17" s="3"/>
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
+      <c r="AL17" s="3"/>
+      <c r="AM17" s="3"/>
+      <c r="AN17" s="3"/>
+      <c r="AO17" s="3"/>
+      <c r="AP17" s="3"/>
+      <c r="AQ17" s="3"/>
+      <c r="AR17" s="3"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="3"/>
+      <c r="AU17" s="3"/>
+      <c r="AV17" s="3"/>
+      <c r="AW17" s="3"/>
+      <c r="AX17" s="3"/>
+      <c r="AY17" s="3"/>
+      <c r="AZ17" s="3"/>
+      <c r="BA17" s="3"/>
+      <c r="BB17" s="3"/>
+      <c r="BC17" s="3"/>
+      <c r="BD17" s="3"/>
+      <c r="BE17" s="3"/>
+      <c r="BF17" s="3"/>
+      <c r="BG17" s="3"/>
+      <c r="BH17" s="3"/>
+      <c r="BI17" s="3"/>
+      <c r="BJ17" s="3"/>
+      <c r="BK17" s="3"/>
+      <c r="BL17" s="3"/>
+      <c r="BM17" s="3"/>
+      <c r="BN17" s="3"/>
+      <c r="BO17" s="3"/>
     </row>
     <row r="18" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="AX18" s="4"/>
-      <c r="AY18" s="4"/>
-      <c r="AZ18" s="4"/>
-      <c r="BA18" s="4"/>
-      <c r="BB18" s="4"/>
-      <c r="BC18" s="4"/>
-      <c r="BD18" s="4"/>
-      <c r="BE18" s="4"/>
-      <c r="BF18" s="4"/>
-      <c r="BG18" s="4"/>
-      <c r="BH18" s="4"/>
-      <c r="BI18" s="4"/>
-      <c r="BJ18" s="4"/>
-      <c r="BK18" s="4"/>
-      <c r="BL18" s="4"/>
-      <c r="BM18" s="4"/>
-      <c r="BN18" s="4"/>
-      <c r="BO18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+      <c r="AG18" s="3"/>
+      <c r="AH18" s="3"/>
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
+      <c r="AL18" s="3"/>
+      <c r="AM18" s="3"/>
+      <c r="AN18" s="3"/>
+      <c r="AO18" s="3"/>
+      <c r="AP18" s="3"/>
+      <c r="AQ18" s="3"/>
+      <c r="AR18" s="3"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="3"/>
+      <c r="AU18" s="3"/>
+      <c r="AV18" s="3"/>
+      <c r="AW18" s="3"/>
+      <c r="AX18" s="3"/>
+      <c r="AY18" s="3"/>
+      <c r="AZ18" s="3"/>
+      <c r="BA18" s="3"/>
+      <c r="BB18" s="3"/>
+      <c r="BC18" s="3"/>
+      <c r="BD18" s="3"/>
+      <c r="BE18" s="3"/>
+      <c r="BF18" s="3"/>
+      <c r="BG18" s="3"/>
+      <c r="BH18" s="3"/>
+      <c r="BI18" s="3"/>
+      <c r="BJ18" s="3"/>
+      <c r="BK18" s="3"/>
+      <c r="BL18" s="3"/>
+      <c r="BM18" s="3"/>
+      <c r="BN18" s="3"/>
+      <c r="BO18" s="3"/>
     </row>
     <row r="19" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="4"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="AX19" s="4"/>
-      <c r="AY19" s="4"/>
-      <c r="AZ19" s="4"/>
-      <c r="BA19" s="4"/>
-      <c r="BB19" s="4"/>
-      <c r="BC19" s="4"/>
-      <c r="BD19" s="4"/>
-      <c r="BE19" s="4"/>
-      <c r="BF19" s="4"/>
-      <c r="BG19" s="4"/>
-      <c r="BH19" s="4"/>
-      <c r="BI19" s="4"/>
-      <c r="BJ19" s="4"/>
-      <c r="BK19" s="4"/>
-      <c r="BL19" s="4"/>
-      <c r="BM19" s="4"/>
-      <c r="BN19" s="4"/>
-      <c r="BO19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
+      <c r="AP19" s="3"/>
+      <c r="AQ19" s="3"/>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="3"/>
+      <c r="AU19" s="3"/>
+      <c r="AV19" s="3"/>
+      <c r="AW19" s="3"/>
+      <c r="AX19" s="3"/>
+      <c r="AY19" s="3"/>
+      <c r="AZ19" s="3"/>
+      <c r="BA19" s="3"/>
+      <c r="BB19" s="3"/>
+      <c r="BC19" s="3"/>
+      <c r="BD19" s="3"/>
+      <c r="BE19" s="3"/>
+      <c r="BF19" s="3"/>
+      <c r="BG19" s="3"/>
+      <c r="BH19" s="3"/>
+      <c r="BI19" s="3"/>
+      <c r="BJ19" s="3"/>
+      <c r="BK19" s="3"/>
+      <c r="BL19" s="3"/>
+      <c r="BM19" s="3"/>
+      <c r="BN19" s="3"/>
+      <c r="BO19" s="3"/>
     </row>
     <row r="20" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AE20" s="4"/>
-      <c r="AF20" s="4"/>
-      <c r="AG20" s="4"/>
-      <c r="AH20" s="4"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="AX20" s="4"/>
-      <c r="AY20" s="4"/>
-      <c r="AZ20" s="4"/>
-      <c r="BA20" s="4"/>
-      <c r="BB20" s="4"/>
-      <c r="BC20" s="4"/>
-      <c r="BD20" s="4"/>
-      <c r="BE20" s="4"/>
-      <c r="BF20" s="4"/>
-      <c r="BG20" s="4"/>
-      <c r="BH20" s="4"/>
-      <c r="BI20" s="4"/>
-      <c r="BJ20" s="4"/>
-      <c r="BK20" s="4"/>
-      <c r="BL20" s="4"/>
-      <c r="BM20" s="4"/>
-      <c r="BN20" s="4"/>
-      <c r="BO20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+      <c r="AF20" s="3"/>
+      <c r="AG20" s="3"/>
+      <c r="AH20" s="3"/>
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
+      <c r="AL20" s="3"/>
+      <c r="AM20" s="3"/>
+      <c r="AN20" s="3"/>
+      <c r="AO20" s="3"/>
+      <c r="AP20" s="3"/>
+      <c r="AQ20" s="3"/>
+      <c r="AR20" s="3"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="3"/>
+      <c r="AU20" s="3"/>
+      <c r="AV20" s="3"/>
+      <c r="AW20" s="3"/>
+      <c r="AX20" s="3"/>
+      <c r="AY20" s="3"/>
+      <c r="AZ20" s="3"/>
+      <c r="BA20" s="3"/>
+      <c r="BB20" s="3"/>
+      <c r="BC20" s="3"/>
+      <c r="BD20" s="3"/>
+      <c r="BE20" s="3"/>
+      <c r="BF20" s="3"/>
+      <c r="BG20" s="3"/>
+      <c r="BH20" s="3"/>
+      <c r="BI20" s="3"/>
+      <c r="BJ20" s="3"/>
+      <c r="BK20" s="3"/>
+      <c r="BL20" s="3"/>
+      <c r="BM20" s="3"/>
+      <c r="BN20" s="3"/>
+      <c r="BO20" s="3"/>
     </row>
     <row r="21" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="4"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="AX21" s="4"/>
-      <c r="AY21" s="4"/>
-      <c r="AZ21" s="4"/>
-      <c r="BA21" s="4"/>
-      <c r="BB21" s="4"/>
-      <c r="BC21" s="4"/>
-      <c r="BD21" s="4"/>
-      <c r="BE21" s="4"/>
-      <c r="BF21" s="4"/>
-      <c r="BG21" s="4"/>
-      <c r="BH21" s="4"/>
-      <c r="BI21" s="4"/>
-      <c r="BJ21" s="4"/>
-      <c r="BK21" s="4"/>
-      <c r="BL21" s="4"/>
-      <c r="BM21" s="4"/>
-      <c r="BN21" s="4"/>
-      <c r="BO21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3"/>
+      <c r="AF21" s="3"/>
+      <c r="AG21" s="3"/>
+      <c r="AH21" s="3"/>
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
+      <c r="AL21" s="3"/>
+      <c r="AM21" s="3"/>
+      <c r="AN21" s="3"/>
+      <c r="AO21" s="3"/>
+      <c r="AP21" s="3"/>
+      <c r="AQ21" s="3"/>
+      <c r="AR21" s="3"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="3"/>
+      <c r="AU21" s="3"/>
+      <c r="AV21" s="3"/>
+      <c r="AW21" s="3"/>
+      <c r="AX21" s="3"/>
+      <c r="AY21" s="3"/>
+      <c r="AZ21" s="3"/>
+      <c r="BA21" s="3"/>
+      <c r="BB21" s="3"/>
+      <c r="BC21" s="3"/>
+      <c r="BD21" s="3"/>
+      <c r="BE21" s="3"/>
+      <c r="BF21" s="3"/>
+      <c r="BG21" s="3"/>
+      <c r="BH21" s="3"/>
+      <c r="BI21" s="3"/>
+      <c r="BJ21" s="3"/>
+      <c r="BK21" s="3"/>
+      <c r="BL21" s="3"/>
+      <c r="BM21" s="3"/>
+      <c r="BN21" s="3"/>
+      <c r="BO21" s="3"/>
     </row>
     <row r="22" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="AX22" s="4"/>
-      <c r="AY22" s="4"/>
-      <c r="AZ22" s="4"/>
-      <c r="BA22" s="4"/>
-      <c r="BB22" s="4"/>
-      <c r="BC22" s="4"/>
-      <c r="BD22" s="4"/>
-      <c r="BE22" s="4"/>
-      <c r="BF22" s="4"/>
-      <c r="BG22" s="4"/>
-      <c r="BH22" s="4"/>
-      <c r="BI22" s="4"/>
-      <c r="BJ22" s="4"/>
-      <c r="BK22" s="4"/>
-      <c r="BL22" s="4"/>
-      <c r="BM22" s="4"/>
-      <c r="BN22" s="4"/>
-      <c r="BO22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+      <c r="AF22" s="3"/>
+      <c r="AG22" s="3"/>
+      <c r="AH22" s="3"/>
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
+      <c r="AL22" s="3"/>
+      <c r="AM22" s="3"/>
+      <c r="AN22" s="3"/>
+      <c r="AO22" s="3"/>
+      <c r="AP22" s="3"/>
+      <c r="AQ22" s="3"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="3"/>
+      <c r="AT22" s="3"/>
+      <c r="AU22" s="3"/>
+      <c r="AV22" s="3"/>
+      <c r="AW22" s="3"/>
+      <c r="AX22" s="3"/>
+      <c r="AY22" s="3"/>
+      <c r="AZ22" s="3"/>
+      <c r="BA22" s="3"/>
+      <c r="BB22" s="3"/>
+      <c r="BC22" s="3"/>
+      <c r="BD22" s="3"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="3"/>
+      <c r="BG22" s="3"/>
+      <c r="BH22" s="3"/>
+      <c r="BI22" s="3"/>
+      <c r="BJ22" s="3"/>
+      <c r="BK22" s="3"/>
+      <c r="BL22" s="3"/>
+      <c r="BM22" s="3"/>
+      <c r="BN22" s="3"/>
+      <c r="BO22" s="3"/>
     </row>
     <row r="23" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="4"/>
-      <c r="AO23" s="4"/>
-      <c r="AP23" s="4"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="4"/>
-      <c r="AS23" s="4"/>
-      <c r="AT23" s="4"/>
-      <c r="AU23" s="4"/>
-      <c r="AV23" s="4"/>
-      <c r="AW23" s="4"/>
-      <c r="AX23" s="4"/>
-      <c r="AY23" s="4"/>
-      <c r="AZ23" s="4"/>
-      <c r="BA23" s="4"/>
-      <c r="BB23" s="4"/>
-      <c r="BC23" s="4"/>
-      <c r="BD23" s="4"/>
-      <c r="BE23" s="4"/>
-      <c r="BF23" s="4"/>
-      <c r="BG23" s="4"/>
-      <c r="BH23" s="4"/>
-      <c r="BI23" s="4"/>
-      <c r="BJ23" s="4"/>
-      <c r="BK23" s="4"/>
-      <c r="BL23" s="4"/>
-      <c r="BM23" s="4"/>
-      <c r="BN23" s="4"/>
-      <c r="BO23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
     </row>
     <row r="24" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
-      <c r="AT24" s="4"/>
-      <c r="AU24" s="4"/>
-      <c r="AV24" s="4"/>
-      <c r="AW24" s="4"/>
-      <c r="AX24" s="4"/>
-      <c r="AY24" s="4"/>
-      <c r="AZ24" s="4"/>
-      <c r="BA24" s="4"/>
-      <c r="BB24" s="4"/>
-      <c r="BC24" s="4"/>
-      <c r="BD24" s="4"/>
-      <c r="BE24" s="4"/>
-      <c r="BF24" s="4"/>
-      <c r="BG24" s="4"/>
-      <c r="BH24" s="4"/>
-      <c r="BI24" s="4"/>
-      <c r="BJ24" s="4"/>
-      <c r="BK24" s="4"/>
-      <c r="BL24" s="4"/>
-      <c r="BM24" s="4"/>
-      <c r="BN24" s="4"/>
-      <c r="BO24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
     </row>
     <row r="25" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="4"/>
-      <c r="AO25" s="4"/>
-      <c r="AP25" s="4"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
-      <c r="AU25" s="4"/>
-      <c r="AV25" s="4"/>
-      <c r="AW25" s="4"/>
-      <c r="AX25" s="4"/>
-      <c r="AY25" s="4"/>
-      <c r="AZ25" s="4"/>
-      <c r="BA25" s="4"/>
-      <c r="BB25" s="4"/>
-      <c r="BC25" s="4"/>
-      <c r="BD25" s="4"/>
-      <c r="BE25" s="4"/>
-      <c r="BF25" s="4"/>
-      <c r="BG25" s="4"/>
-      <c r="BH25" s="4"/>
-      <c r="BI25" s="4"/>
-      <c r="BJ25" s="4"/>
-      <c r="BK25" s="4"/>
-      <c r="BL25" s="4"/>
-      <c r="BM25" s="4"/>
-      <c r="BN25" s="4"/>
-      <c r="BO25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
     </row>
     <row r="26" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
-      <c r="AU26" s="4"/>
-      <c r="AV26" s="4"/>
-      <c r="AW26" s="4"/>
-      <c r="AX26" s="4"/>
-      <c r="AY26" s="4"/>
-      <c r="AZ26" s="4"/>
-      <c r="BA26" s="4"/>
-      <c r="BB26" s="4"/>
-      <c r="BC26" s="4"/>
-      <c r="BD26" s="4"/>
-      <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
-      <c r="BH26" s="4"/>
-      <c r="BI26" s="4"/>
-      <c r="BJ26" s="4"/>
-      <c r="BK26" s="4"/>
-      <c r="BL26" s="4"/>
-      <c r="BM26" s="4"/>
-      <c r="BN26" s="4"/>
-      <c r="BO26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
     </row>
     <row r="27" spans="1:67" ht="13.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="4"/>
-      <c r="AO27" s="4"/>
-      <c r="AP27" s="4"/>
-      <c r="AQ27" s="4"/>
-      <c r="AR27" s="4"/>
-      <c r="AS27" s="4"/>
-      <c r="AT27" s="4"/>
-      <c r="AU27" s="4"/>
-      <c r="AV27" s="4"/>
-      <c r="AW27" s="4"/>
-      <c r="AX27" s="4"/>
-      <c r="AY27" s="4"/>
-      <c r="AZ27" s="4"/>
-      <c r="BA27" s="4"/>
-      <c r="BB27" s="4"/>
-      <c r="BC27" s="4"/>
-      <c r="BD27" s="4"/>
-      <c r="BE27" s="4"/>
-      <c r="BF27" s="4"/>
-      <c r="BG27" s="4"/>
-      <c r="BH27" s="4"/>
-      <c r="BI27" s="4"/>
-      <c r="BJ27" s="4"/>
-      <c r="BK27" s="4"/>
-      <c r="BL27" s="4"/>
-      <c r="BM27" s="4"/>
-      <c r="BN27" s="4"/>
-      <c r="BO27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="GR1:HL3"/>
+    <mergeCell ref="GR4:HL6"/>
+    <mergeCell ref="GR7:HL9"/>
+    <mergeCell ref="GR10:HL12"/>
+    <mergeCell ref="GR13:HL15"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="A4:J6"/>
+    <mergeCell ref="A7:J9"/>
+    <mergeCell ref="A10:J12"/>
+    <mergeCell ref="A13:J15"/>
+    <mergeCell ref="K1:AE3"/>
+    <mergeCell ref="K4:AE6"/>
+    <mergeCell ref="K7:AE9"/>
+    <mergeCell ref="K10:AE12"/>
+    <mergeCell ref="K13:AE15"/>
+    <mergeCell ref="BA1:BU3"/>
+    <mergeCell ref="BV1:CP3"/>
+    <mergeCell ref="CQ1:DK3"/>
+    <mergeCell ref="DL1:EF3"/>
+    <mergeCell ref="AF4:AZ6"/>
+    <mergeCell ref="BA4:BU6"/>
+    <mergeCell ref="BV4:CP6"/>
+    <mergeCell ref="CQ4:DK6"/>
+    <mergeCell ref="DL4:EF6"/>
+    <mergeCell ref="AF1:AZ3"/>
+    <mergeCell ref="BA7:BU9"/>
+    <mergeCell ref="BV7:CP9"/>
+    <mergeCell ref="CQ7:DK9"/>
+    <mergeCell ref="DL7:EF9"/>
+    <mergeCell ref="AF10:AZ12"/>
+    <mergeCell ref="BA10:BU12"/>
+    <mergeCell ref="BV10:CP12"/>
+    <mergeCell ref="CQ10:DK12"/>
+    <mergeCell ref="DL10:EF12"/>
+    <mergeCell ref="AF7:AZ9"/>
+    <mergeCell ref="EG4:FA6"/>
+    <mergeCell ref="EG1:FA3"/>
+    <mergeCell ref="EG7:FA9"/>
+    <mergeCell ref="EG10:FA12"/>
+    <mergeCell ref="EG13:FA15"/>
+    <mergeCell ref="FB1:FV3"/>
+    <mergeCell ref="FW1:GQ3"/>
+    <mergeCell ref="FB4:FV6"/>
+    <mergeCell ref="FW4:GQ6"/>
+    <mergeCell ref="FB7:FV9"/>
+    <mergeCell ref="FW7:GQ9"/>
     <mergeCell ref="FB10:FV12"/>
     <mergeCell ref="FW10:GQ12"/>
     <mergeCell ref="FB13:FV15"/>
@@ -4991,52 +5056,6 @@
     <mergeCell ref="CQ13:DK15"/>
     <mergeCell ref="DL13:EF15"/>
     <mergeCell ref="AF13:AZ15"/>
-    <mergeCell ref="FB1:FV3"/>
-    <mergeCell ref="FW1:GQ3"/>
-    <mergeCell ref="FB4:FV6"/>
-    <mergeCell ref="FW4:GQ6"/>
-    <mergeCell ref="FB7:FV9"/>
-    <mergeCell ref="FW7:GQ9"/>
-    <mergeCell ref="EG4:FA6"/>
-    <mergeCell ref="EG1:FA3"/>
-    <mergeCell ref="EG7:FA9"/>
-    <mergeCell ref="EG10:FA12"/>
-    <mergeCell ref="EG13:FA15"/>
-    <mergeCell ref="BA7:BU9"/>
-    <mergeCell ref="BV7:CP9"/>
-    <mergeCell ref="CQ7:DK9"/>
-    <mergeCell ref="DL7:EF9"/>
-    <mergeCell ref="AF10:AZ12"/>
-    <mergeCell ref="BA10:BU12"/>
-    <mergeCell ref="BV10:CP12"/>
-    <mergeCell ref="CQ10:DK12"/>
-    <mergeCell ref="DL10:EF12"/>
-    <mergeCell ref="AF7:AZ9"/>
-    <mergeCell ref="BA1:BU3"/>
-    <mergeCell ref="BV1:CP3"/>
-    <mergeCell ref="CQ1:DK3"/>
-    <mergeCell ref="DL1:EF3"/>
-    <mergeCell ref="AF4:AZ6"/>
-    <mergeCell ref="BA4:BU6"/>
-    <mergeCell ref="BV4:CP6"/>
-    <mergeCell ref="CQ4:DK6"/>
-    <mergeCell ref="DL4:EF6"/>
-    <mergeCell ref="AF1:AZ3"/>
-    <mergeCell ref="K1:AE3"/>
-    <mergeCell ref="K4:AE6"/>
-    <mergeCell ref="K7:AE9"/>
-    <mergeCell ref="K10:AE12"/>
-    <mergeCell ref="K13:AE15"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="A4:J6"/>
-    <mergeCell ref="A7:J9"/>
-    <mergeCell ref="A10:J12"/>
-    <mergeCell ref="A13:J15"/>
-    <mergeCell ref="GR1:HL3"/>
-    <mergeCell ref="GR4:HL6"/>
-    <mergeCell ref="GR7:HL9"/>
-    <mergeCell ref="GR10:HL12"/>
-    <mergeCell ref="GR13:HL15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
